--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2623199.104492999</v>
+        <v>-2623977.381144615</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3648562.622721716</v>
+        <v>3648562.622721714</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.334965525335</v>
+        <v>288.3349655253351</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>289.0697240974503</v>
+        <v>289.0697240974504</v>
       </c>
       <c r="F11" t="n">
-        <v>308.2415401854274</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>309.6000006915978</v>
+        <v>309.6000006915979</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.8381768654982</v>
       </c>
       <c r="I11" t="n">
-        <v>47.16062625453677</v>
+        <v>47.16062625453687</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49012359028565</v>
+        <v>50.17165164941458</v>
       </c>
       <c r="T11" t="n">
-        <v>55.61410331029008</v>
+        <v>117.8309988535885</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>231.8413427655141</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.4417004762176</v>
+        <v>276.4417004762178</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.8382982724164</v>
+        <v>287.8382982724165</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>58.3184974339509</v>
+        <v>58.31849743395099</v>
       </c>
       <c r="D12" t="n">
-        <v>35.68211204218609</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1464,7 +1464,7 @@
         <v>127.1336659090721</v>
       </c>
       <c r="H12" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>57.1096020058413</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40.09140601927347</v>
       </c>
       <c r="S12" t="n">
         <v>145.5589030715301</v>
@@ -1506,13 +1506,13 @@
         <v>216.2896109863653</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>134.9553952014281</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>150.6728893782317</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.95167640003207</v>
+        <v>79.95167640003217</v>
       </c>
       <c r="C13" t="n">
-        <v>66.15167124543255</v>
+        <v>66.15167124543265</v>
       </c>
       <c r="D13" t="n">
-        <v>49.77303564301094</v>
+        <v>49.77303564301104</v>
       </c>
       <c r="E13" t="n">
-        <v>48.72078549879039</v>
+        <v>48.72078549879049</v>
       </c>
       <c r="F13" t="n">
-        <v>49.1877098269767</v>
+        <v>49.1877098269768</v>
       </c>
       <c r="G13" t="n">
-        <v>65.20457374105996</v>
+        <v>65.20457374106006</v>
       </c>
       <c r="H13" t="n">
-        <v>53.71835877551722</v>
+        <v>53.71835877551732</v>
       </c>
       <c r="I13" t="n">
-        <v>33.23895922465154</v>
+        <v>33.23895922465164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66505460398369</v>
+        <v>34.66505460398379</v>
       </c>
       <c r="S13" t="n">
-        <v>105.311099158971</v>
+        <v>105.3110991589711</v>
       </c>
       <c r="T13" t="n">
-        <v>127.9773501512072</v>
+        <v>127.9773501512073</v>
       </c>
       <c r="U13" t="n">
-        <v>182.5361345833455</v>
+        <v>182.5361345833456</v>
       </c>
       <c r="V13" t="n">
-        <v>156.3598127996577</v>
+        <v>156.3598127996578</v>
       </c>
       <c r="W13" t="n">
-        <v>181.5266988702709</v>
+        <v>181.526698870271</v>
       </c>
       <c r="X13" t="n">
-        <v>127.171800866074</v>
+        <v>127.1718008660741</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.0466686221417</v>
+        <v>118.0466686221418</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>288.3349655253351</v>
       </c>
       <c r="C14" t="n">
         <v>276.3462824830168</v>
       </c>
       <c r="D14" t="n">
-        <v>267.3275865275447</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>162.8292501329406</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H14" t="n">
         <v>221.8381768654981</v>
       </c>
       <c r="I14" t="n">
-        <v>47.16062625453678</v>
+        <v>47.1606262545368</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49012359028566</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T14" t="n">
         <v>117.8309988535884</v>
@@ -1664,16 +1664,16 @@
         <v>150.5223597343418</v>
       </c>
       <c r="V14" t="n">
-        <v>231.8413427655141</v>
+        <v>231.8413427655142</v>
       </c>
       <c r="W14" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.4417004762176</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.6917853750562</v>
+        <v>287.8382982724165</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1686,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>58.31849743395091</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>43.78959124619358</v>
       </c>
       <c r="F15" t="n">
-        <v>42.19058894490232</v>
+        <v>31.57872147212051</v>
       </c>
       <c r="G15" t="n">
         <v>127.1336659090721</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I15" t="n">
         <v>57.1096020058413</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.09140601927347</v>
+        <v>40.09140601927345</v>
       </c>
       <c r="S15" t="n">
         <v>145.5589030715301</v>
@@ -1743,7 +1743,7 @@
         <v>216.2896109863653</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>140.7553314441244</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.95167640003208</v>
+        <v>79.95167640003213</v>
       </c>
       <c r="C16" t="n">
-        <v>66.15167124543257</v>
+        <v>66.15167124543261</v>
       </c>
       <c r="D16" t="n">
-        <v>49.77303564301096</v>
+        <v>49.773035643011</v>
       </c>
       <c r="E16" t="n">
-        <v>48.72078549879041</v>
+        <v>48.72078549879045</v>
       </c>
       <c r="F16" t="n">
-        <v>49.18770982697671</v>
+        <v>49.18770982697676</v>
       </c>
       <c r="G16" t="n">
-        <v>65.20457374105997</v>
+        <v>65.20457374106002</v>
       </c>
       <c r="H16" t="n">
-        <v>53.71835877551723</v>
+        <v>53.71835877551727</v>
       </c>
       <c r="I16" t="n">
-        <v>33.23895922465156</v>
+        <v>33.23895922465159</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66505460398371</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S16" t="n">
         <v>105.311099158971</v>
       </c>
       <c r="T16" t="n">
-        <v>127.9773501512072</v>
+        <v>127.9773501512073</v>
       </c>
       <c r="U16" t="n">
         <v>182.5361345833455</v>
@@ -1825,13 +1825,13 @@
         <v>156.3598127996577</v>
       </c>
       <c r="W16" t="n">
-        <v>181.5266988702709</v>
+        <v>181.526698870271</v>
       </c>
       <c r="X16" t="n">
         <v>127.1718008660741</v>
       </c>
       <c r="Y16" t="n">
-        <v>118.0466686221417</v>
+        <v>118.0466686221418</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.3548121751543</v>
+        <v>202.3548121751545</v>
       </c>
       <c r="C17" t="n">
-        <v>190.366129132836</v>
+        <v>190.3661291328362</v>
       </c>
       <c r="D17" t="n">
-        <v>181.347433177364</v>
+        <v>181.3474331773642</v>
       </c>
       <c r="E17" t="n">
-        <v>203.0895707472695</v>
+        <v>203.0895707472697</v>
       </c>
       <c r="F17" t="n">
-        <v>222.2613868352467</v>
+        <v>222.2613868352469</v>
       </c>
       <c r="G17" t="n">
-        <v>223.619847341417</v>
+        <v>223.6198473414172</v>
       </c>
       <c r="H17" t="n">
-        <v>135.8580235153173</v>
+        <v>135.8580235153176</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.85084550340768</v>
+        <v>31.85084550340787</v>
       </c>
       <c r="U17" t="n">
-        <v>64.54220638416105</v>
+        <v>64.54220638416126</v>
       </c>
       <c r="V17" t="n">
-        <v>145.8611894153334</v>
+        <v>145.8611894153336</v>
       </c>
       <c r="W17" t="n">
-        <v>171.1612888932903</v>
+        <v>171.1612888932905</v>
       </c>
       <c r="X17" t="n">
-        <v>190.4615471260369</v>
+        <v>190.4615471260371</v>
       </c>
       <c r="Y17" t="n">
-        <v>201.8581449222357</v>
+        <v>201.8581449222359</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>94.29589221830102</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>92.02489025057389</v>
       </c>
       <c r="I18" t="n">
-        <v>57.1096020058413</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.09140601927347</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>145.5589030715301</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>2.847821139232479</v>
       </c>
     </row>
     <row r="19">
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>22.57664145290799</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>16.56148380817539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.79502903451906</v>
+        <v>19.33094580879045</v>
       </c>
       <c r="T19" t="n">
-        <v>41.99719680102648</v>
+        <v>41.99719680102667</v>
       </c>
       <c r="U19" t="n">
-        <v>96.55598123316474</v>
+        <v>96.55598123316494</v>
       </c>
       <c r="V19" t="n">
-        <v>70.37965944947695</v>
+        <v>70.37965944947715</v>
       </c>
       <c r="W19" t="n">
-        <v>95.54654552009021</v>
+        <v>95.5465455200904</v>
       </c>
       <c r="X19" t="n">
-        <v>41.19164751589332</v>
+        <v>41.19164751589352</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>32.06651527196121</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.3548121751543</v>
+        <v>202.3548121751545</v>
       </c>
       <c r="C20" t="n">
-        <v>190.366129132836</v>
+        <v>190.3661291328362</v>
       </c>
       <c r="D20" t="n">
-        <v>181.347433177364</v>
+        <v>181.3474331773642</v>
       </c>
       <c r="E20" t="n">
-        <v>203.0895707472695</v>
+        <v>203.0895707472697</v>
       </c>
       <c r="F20" t="n">
-        <v>222.2613868352467</v>
+        <v>222.2613868352469</v>
       </c>
       <c r="G20" t="n">
-        <v>223.619847341417</v>
+        <v>223.6198473414172</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8580235153174</v>
+        <v>135.8580235153176</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.85084550340768</v>
+        <v>31.85084550340788</v>
       </c>
       <c r="U20" t="n">
-        <v>64.54220638416105</v>
+        <v>64.54220638416125</v>
       </c>
       <c r="V20" t="n">
-        <v>145.8611894153334</v>
+        <v>145.8611894153336</v>
       </c>
       <c r="W20" t="n">
-        <v>171.1612888932903</v>
+        <v>171.1612888932905</v>
       </c>
       <c r="X20" t="n">
-        <v>190.4615471260369</v>
+        <v>190.4615471260371</v>
       </c>
       <c r="Y20" t="n">
-        <v>201.8581449222357</v>
+        <v>201.8581449222359</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>57.1096020058413</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>145.5589030715301</v>
       </c>
       <c r="T21" t="n">
-        <v>185.5586142282266</v>
+        <v>176.8774724209148</v>
       </c>
       <c r="U21" t="n">
         <v>216.2896109863653</v>
@@ -2220,7 +2220,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>95.56782784568752</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.4199316502082</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.33094580879025</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T22" t="n">
-        <v>41.99719680102648</v>
+        <v>41.99719680102667</v>
       </c>
       <c r="U22" t="n">
-        <v>96.55598123316474</v>
+        <v>96.55598123316494</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>70.37965944947715</v>
       </c>
       <c r="W22" t="n">
-        <v>95.54654552009021</v>
+        <v>95.5465455200904</v>
       </c>
       <c r="X22" t="n">
-        <v>41.19164751589332</v>
+        <v>41.19164751589352</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.99752282587608</v>
+        <v>32.06651527196121</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.3548121751543</v>
+        <v>202.3548121751545</v>
       </c>
       <c r="C23" t="n">
-        <v>190.366129132836</v>
+        <v>190.3661291328362</v>
       </c>
       <c r="D23" t="n">
-        <v>181.347433177364</v>
+        <v>181.3474331773642</v>
       </c>
       <c r="E23" t="n">
-        <v>203.0895707472695</v>
+        <v>203.0895707472697</v>
       </c>
       <c r="F23" t="n">
-        <v>222.2613868352467</v>
+        <v>222.2613868352469</v>
       </c>
       <c r="G23" t="n">
-        <v>223.619847341417</v>
+        <v>223.6198473414172</v>
       </c>
       <c r="H23" t="n">
-        <v>135.8580235153174</v>
+        <v>135.8580235153176</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.85084550340767</v>
+        <v>31.85084550340788</v>
       </c>
       <c r="U23" t="n">
-        <v>64.54220638416106</v>
+        <v>64.54220638416125</v>
       </c>
       <c r="V23" t="n">
-        <v>145.8611894153334</v>
+        <v>145.8611894153336</v>
       </c>
       <c r="W23" t="n">
-        <v>171.1612888932903</v>
+        <v>171.1612888932905</v>
       </c>
       <c r="X23" t="n">
-        <v>190.4615471260369</v>
+        <v>190.4615471260371</v>
       </c>
       <c r="Y23" t="n">
-        <v>201.8581449222357</v>
+        <v>201.8581449222359</v>
       </c>
     </row>
     <row r="24">
@@ -2403,13 +2403,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>49.8343281465852</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.09140601927347</v>
       </c>
       <c r="S24" t="n">
         <v>145.5589030715301</v>
       </c>
       <c r="T24" t="n">
-        <v>185.5586142282266</v>
+        <v>176.8774724209171</v>
       </c>
       <c r="U24" t="n">
         <v>216.2896109863653</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>41.22746252636377</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.4331932014876</v>
       </c>
       <c r="S25" t="n">
-        <v>172.7508774589998</v>
+        <v>182.8385136788317</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7454887487111</v>
+        <v>41.99719680102667</v>
       </c>
       <c r="U25" t="n">
-        <v>96.55598123316474</v>
+        <v>96.55598123316494</v>
       </c>
       <c r="V25" t="n">
-        <v>70.37965944947695</v>
+        <v>70.37965944947715</v>
       </c>
       <c r="W25" t="n">
-        <v>95.54654552009021</v>
+        <v>95.5465455200904</v>
       </c>
       <c r="X25" t="n">
-        <v>41.19164751589332</v>
+        <v>41.19164751589352</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.06651527196101</v>
+        <v>32.06651527196121</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.3349655253351</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C26" t="n">
         <v>276.3462824830168</v>
       </c>
       <c r="D26" t="n">
-        <v>267.3275865275448</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E26" t="n">
         <v>289.0697240974503</v>
       </c>
       <c r="F26" t="n">
-        <v>308.2415401854275</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G26" t="n">
         <v>309.6000006915978</v>
@@ -2573,7 +2573,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I26" t="n">
-        <v>47.16062625453681</v>
+        <v>47.16062625453677</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.49012359028571</v>
+        <v>70.49012359028566</v>
       </c>
       <c r="T26" t="n">
-        <v>117.8309988535885</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U26" t="n">
         <v>150.5223597343418</v>
       </c>
       <c r="V26" t="n">
-        <v>231.8413427655142</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W26" t="n">
-        <v>257.1414422434711</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X26" t="n">
-        <v>276.4417004762177</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.8382982724165</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.95167640003213</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C28" t="n">
-        <v>66.15167124543261</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D28" t="n">
-        <v>49.773035643011</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E28" t="n">
-        <v>48.72078549879045</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F28" t="n">
-        <v>49.18770982697676</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G28" t="n">
-        <v>65.20457374106002</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71835877551727</v>
+        <v>53.71835877551723</v>
       </c>
       <c r="I28" t="n">
-        <v>33.2389592246516</v>
+        <v>33.23895922465156</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66505460398375</v>
+        <v>34.66505460398371</v>
       </c>
       <c r="S28" t="n">
         <v>105.311099158971</v>
       </c>
       <c r="T28" t="n">
-        <v>127.9773501512073</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U28" t="n">
         <v>182.5361345833455</v>
@@ -2773,13 +2773,13 @@
         <v>156.3598127996577</v>
       </c>
       <c r="W28" t="n">
-        <v>181.526698870271</v>
+        <v>181.5266988702709</v>
       </c>
       <c r="X28" t="n">
         <v>127.1718008660741</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.0466686221418</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>289.0697240974503</v>
       </c>
       <c r="F29" t="n">
-        <v>308.2415401854274</v>
+        <v>308.2415401854275</v>
       </c>
       <c r="G29" t="n">
         <v>309.6000006915978</v>
@@ -2810,7 +2810,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I29" t="n">
-        <v>47.16062625453682</v>
+        <v>47.16062625453681</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>231.8413427655142</v>
       </c>
       <c r="W29" t="n">
-        <v>257.141442243471</v>
+        <v>257.1414422434711</v>
       </c>
       <c r="X29" t="n">
-        <v>276.4417004762176</v>
+        <v>276.4417004762177</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.8382982724164</v>
+        <v>287.8382982724165</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>95.96820235480737</v>
       </c>
       <c r="I30" t="n">
-        <v>57.10960200584131</v>
+        <v>57.1096020058413</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.09140601927349</v>
+        <v>40.09140601927346</v>
       </c>
       <c r="S30" t="n">
         <v>145.5589030715301</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.95167640003211</v>
+        <v>79.95167640003213</v>
       </c>
       <c r="C31" t="n">
-        <v>66.1516712454326</v>
+        <v>66.15167124543261</v>
       </c>
       <c r="D31" t="n">
-        <v>49.77303564301099</v>
+        <v>49.773035643011</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72078549879043</v>
+        <v>48.72078549879045</v>
       </c>
       <c r="F31" t="n">
-        <v>49.18770982697674</v>
+        <v>49.18770982697676</v>
       </c>
       <c r="G31" t="n">
-        <v>65.20457374106002</v>
+        <v>65.20457374106003</v>
       </c>
       <c r="H31" t="n">
-        <v>53.71835877551726</v>
+        <v>53.71835877551727</v>
       </c>
       <c r="I31" t="n">
         <v>33.23895922465159</v>
@@ -3001,7 +3001,7 @@
         <v>105.311099158971</v>
       </c>
       <c r="T31" t="n">
-        <v>127.9773501512072</v>
+        <v>127.9773501512073</v>
       </c>
       <c r="U31" t="n">
         <v>182.5361345833455</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.3349655253351</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C32" t="n">
-        <v>276.3462824830169</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D32" t="n">
-        <v>267.3275865275448</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E32" t="n">
-        <v>289.0697240974504</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F32" t="n">
-        <v>308.2415401854275</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G32" t="n">
-        <v>309.6000006915979</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H32" t="n">
-        <v>221.8381768654982</v>
+        <v>221.838176865498</v>
       </c>
       <c r="I32" t="n">
-        <v>47.16062625453687</v>
+        <v>47.16062625453678</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49012359028576</v>
+        <v>70.49012359028568</v>
       </c>
       <c r="T32" t="n">
-        <v>117.8309988535885</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U32" t="n">
-        <v>150.5223597343419</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V32" t="n">
-        <v>231.8413427655142</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W32" t="n">
-        <v>257.1414422434711</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X32" t="n">
-        <v>276.4417004762178</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.8382982724165</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.09140601927347</v>
+        <v>40.09140601927346</v>
       </c>
       <c r="S33" t="n">
         <v>145.5589030715301</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.95167640003218</v>
+        <v>79.9516764000321</v>
       </c>
       <c r="C34" t="n">
-        <v>66.15167124543267</v>
+        <v>66.15167124543258</v>
       </c>
       <c r="D34" t="n">
-        <v>49.77303564301106</v>
+        <v>49.77303564301097</v>
       </c>
       <c r="E34" t="n">
-        <v>48.72078549879051</v>
+        <v>48.72078549879042</v>
       </c>
       <c r="F34" t="n">
-        <v>49.18770982697681</v>
+        <v>49.18770982697673</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20457374106007</v>
+        <v>65.20457374106</v>
       </c>
       <c r="H34" t="n">
-        <v>53.71835877551733</v>
+        <v>53.71835877551725</v>
       </c>
       <c r="I34" t="n">
-        <v>33.23895922465166</v>
+        <v>33.23895922465157</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6650546039838</v>
+        <v>34.66505460398371</v>
       </c>
       <c r="S34" t="n">
-        <v>105.3110991589711</v>
+        <v>105.311099158971</v>
       </c>
       <c r="T34" t="n">
-        <v>127.9773501512073</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5361345833456</v>
+        <v>182.5361345833455</v>
       </c>
       <c r="V34" t="n">
-        <v>156.3598127996578</v>
+        <v>156.3598127996577</v>
       </c>
       <c r="W34" t="n">
-        <v>181.526698870271</v>
+        <v>181.5266988702709</v>
       </c>
       <c r="X34" t="n">
-        <v>127.1718008660742</v>
+        <v>127.1718008660741</v>
       </c>
       <c r="Y34" t="n">
         <v>118.0466686221418</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C35" t="n">
         <v>212.1077464069024</v>
       </c>
       <c r="D35" t="n">
-        <v>203.0890504514303</v>
+        <v>203.0890504514304</v>
       </c>
       <c r="E35" t="n">
         <v>224.8311880213359</v>
       </c>
       <c r="F35" t="n">
-        <v>244.003004109313</v>
+        <v>244.0030041093131</v>
       </c>
       <c r="G35" t="n">
-        <v>245.3614646154833</v>
+        <v>245.3614646154834</v>
       </c>
       <c r="H35" t="n">
         <v>157.5996407893837</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.251587514171261</v>
+        <v>6.25158751417132</v>
       </c>
       <c r="T35" t="n">
-        <v>53.592462777474</v>
+        <v>53.59246277747405</v>
       </c>
       <c r="U35" t="n">
-        <v>86.28382365822739</v>
+        <v>86.28382365822745</v>
       </c>
       <c r="V35" t="n">
-        <v>167.6028066893997</v>
+        <v>167.6028066893998</v>
       </c>
       <c r="W35" t="n">
-        <v>192.9029061673566</v>
+        <v>192.9029061673567</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2031644001032</v>
+        <v>212.2031644001033</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.09140601927347</v>
+        <v>40.09140601927346</v>
       </c>
       <c r="S36" t="n">
         <v>145.5589030715301</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.71314032391768</v>
+        <v>15.71314032391774</v>
       </c>
       <c r="C37" t="n">
-        <v>1.913135169318167</v>
+        <v>1.913135169318224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.1571269948842</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.343952512575727</v>
+        <v>0.9660376649456357</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>41.22746252636377</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.07256308285658</v>
+        <v>41.07256308285663</v>
       </c>
       <c r="T37" t="n">
-        <v>229.7454887487111</v>
+        <v>63.73881407509286</v>
       </c>
       <c r="U37" t="n">
         <v>118.2975985072311</v>
       </c>
       <c r="V37" t="n">
-        <v>92.12127672354328</v>
+        <v>92.12127672354333</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2881627941565</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X37" t="n">
-        <v>62.93326478995965</v>
+        <v>62.93326478995971</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.80813254602734</v>
+        <v>53.80813254602739</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0964294492206</v>
+        <v>224.0964294492207</v>
       </c>
       <c r="C38" t="n">
         <v>212.1077464069024</v>
       </c>
       <c r="D38" t="n">
-        <v>203.0890504514303</v>
+        <v>203.0890504514304</v>
       </c>
       <c r="E38" t="n">
         <v>224.8311880213359</v>
       </c>
       <c r="F38" t="n">
-        <v>244.003004109313</v>
+        <v>244.0030041093131</v>
       </c>
       <c r="G38" t="n">
         <v>245.3614646154834</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.251587514171263</v>
+        <v>6.25158751417132</v>
       </c>
       <c r="T38" t="n">
-        <v>53.592462777474</v>
+        <v>53.59246277747405</v>
       </c>
       <c r="U38" t="n">
-        <v>86.28382365822739</v>
+        <v>86.28382365822745</v>
       </c>
       <c r="V38" t="n">
-        <v>167.6028066893997</v>
+        <v>167.6028066893998</v>
       </c>
       <c r="W38" t="n">
-        <v>192.9029061673566</v>
+        <v>192.9029061673567</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2031644001032</v>
+        <v>212.2031644001033</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.599762196302</v>
+        <v>223.5997621963021</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.09140601927347</v>
+        <v>40.09140601927346</v>
       </c>
       <c r="S39" t="n">
         <v>145.5589030715301</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.71314032391768</v>
+        <v>15.71314032391774</v>
       </c>
       <c r="C40" t="n">
-        <v>1.913135169318167</v>
+        <v>1.913135169318224</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>35.37749169909289</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9660376649455789</v>
+        <v>0.9660376649456357</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>135.0070978221555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.334181616778191</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.56148380817539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.07256308285658</v>
+        <v>41.07256308285663</v>
       </c>
       <c r="T40" t="n">
-        <v>63.7388140750928</v>
+        <v>63.73881407509286</v>
       </c>
       <c r="U40" t="n">
         <v>118.2975985072311</v>
       </c>
       <c r="V40" t="n">
-        <v>92.12127672354328</v>
+        <v>92.12127672354333</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2881627941565</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X40" t="n">
-        <v>62.93326478995965</v>
+        <v>62.93326478995971</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.80813254602734</v>
+        <v>53.80813254602739</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.251587514171346</v>
+        <v>6.251587514171344</v>
       </c>
       <c r="T41" t="n">
         <v>53.59246277747409</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.09140601927347</v>
+        <v>40.09140601927346</v>
       </c>
       <c r="S42" t="n">
         <v>145.5589030715301</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.377914847629392</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>41.07256308285666</v>
       </c>
       <c r="T43" t="n">
-        <v>229.7454887487111</v>
+        <v>63.73881407509289</v>
       </c>
       <c r="U43" t="n">
         <v>118.2975985072312</v>
@@ -3961,10 +3961,10 @@
         <v>117.2881627941566</v>
       </c>
       <c r="X43" t="n">
-        <v>67.31117963758913</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.80813254602742</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>245.3614646154834</v>
       </c>
       <c r="H44" t="n">
-        <v>157.5996407893838</v>
+        <v>157.5996407893837</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.251587514171346</v>
+        <v>6.251587514171344</v>
       </c>
       <c r="T44" t="n">
         <v>53.59246277747409</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.09140601927347</v>
+        <v>40.09140601927346</v>
       </c>
       <c r="S45" t="n">
         <v>145.5589030715301</v>
@@ -4144,7 +4144,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.33418161677791</v>
       </c>
       <c r="G46" t="n">
         <v>0.9660376649456641</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>16.56148380817539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>41.07256308285666</v>
       </c>
       <c r="T46" t="n">
-        <v>83.63447950004625</v>
+        <v>63.73881407509289</v>
       </c>
       <c r="U46" t="n">
         <v>118.2975985072312</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1008.331376940645</v>
+        <v>1200.192911448814</v>
       </c>
       <c r="C11" t="n">
-        <v>1008.331376940645</v>
+        <v>921.0552523750595</v>
       </c>
       <c r="D11" t="n">
-        <v>1008.331376940645</v>
+        <v>921.0552523750595</v>
       </c>
       <c r="E11" t="n">
-        <v>716.3417566401898</v>
+        <v>629.0656320746045</v>
       </c>
       <c r="F11" t="n">
-        <v>404.9866655437985</v>
+        <v>629.0656320746045</v>
       </c>
       <c r="G11" t="n">
-        <v>92.25939211794211</v>
+        <v>316.3383586487485</v>
       </c>
       <c r="H11" t="n">
-        <v>92.25939211794211</v>
+        <v>92.25939211794223</v>
       </c>
       <c r="I11" t="n">
         <v>44.62239590123833</v>
@@ -5045,13 +5045,13 @@
         <v>477.4459895919366</v>
       </c>
       <c r="L11" t="n">
-        <v>477.4459895919366</v>
+        <v>915.1331908979673</v>
       </c>
       <c r="M11" t="n">
-        <v>970.6069927008489</v>
+        <v>1408.294194006879</v>
       </c>
       <c r="N11" t="n">
-        <v>1450.47702802978</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="O11" t="n">
         <v>1765.247199406364</v>
@@ -5060,31 +5060,31 @@
         <v>2075.235537020012</v>
       </c>
       <c r="Q11" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R11" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S11" t="n">
-        <v>2159.917650021223</v>
+        <v>2180.441359052407</v>
       </c>
       <c r="T11" t="n">
-        <v>2103.741788091638</v>
+        <v>2061.420148089187</v>
       </c>
       <c r="U11" t="n">
-        <v>2103.741788091638</v>
+        <v>2061.420148089187</v>
       </c>
       <c r="V11" t="n">
-        <v>1869.558613581017</v>
+        <v>2061.420148089187</v>
       </c>
       <c r="W11" t="n">
-        <v>1869.558613581017</v>
+        <v>2061.420148089187</v>
       </c>
       <c r="X11" t="n">
-        <v>1590.324572695949</v>
+        <v>1782.186107204119</v>
       </c>
       <c r="Y11" t="n">
-        <v>1299.578816865225</v>
+        <v>1491.440351373395</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>704.3362036377835</v>
+        <v>710.1947250950528</v>
       </c>
       <c r="C12" t="n">
-        <v>645.4286304721765</v>
+        <v>651.2871519294457</v>
       </c>
       <c r="D12" t="n">
-        <v>609.3860930558269</v>
+        <v>512.4485149196578</v>
       </c>
       <c r="E12" t="n">
-        <v>462.3580831126982</v>
+        <v>365.4205049765291</v>
       </c>
       <c r="F12" t="n">
-        <v>327.6642850625725</v>
+        <v>230.7267069264034</v>
       </c>
       <c r="G12" t="n">
-        <v>199.2464407099744</v>
+        <v>102.3088625738053</v>
       </c>
       <c r="H12" t="n">
         <v>102.3088625738053</v>
@@ -5118,52 +5118,52 @@
         <v>44.62239590123833</v>
       </c>
       <c r="J12" t="n">
-        <v>44.62239590123833</v>
+        <v>133.6426184273642</v>
       </c>
       <c r="K12" t="n">
-        <v>323.2787541266704</v>
+        <v>412.2989766527962</v>
       </c>
       <c r="L12" t="n">
-        <v>755.2100924509778</v>
+        <v>844.2303149771035</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.412241728802</v>
+        <v>1396.432464254928</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.412241728802</v>
+        <v>1396.432464254928</v>
       </c>
       <c r="O12" t="n">
         <v>1674.245361813032</v>
       </c>
       <c r="P12" t="n">
-        <v>2034.482380229163</v>
+        <v>2034.482380229164</v>
       </c>
       <c r="Q12" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R12" t="n">
-        <v>2231.119795061916</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="S12" t="n">
-        <v>2084.090600040169</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T12" t="n">
-        <v>1896.657656375293</v>
+        <v>1856.161286658856</v>
       </c>
       <c r="U12" t="n">
-        <v>1678.183301843611</v>
+        <v>1637.686932127174</v>
       </c>
       <c r="V12" t="n">
-        <v>1449.787679291945</v>
+        <v>1501.36835111563</v>
       </c>
       <c r="W12" t="n">
-        <v>1208.471810525255</v>
+        <v>1260.05248234894</v>
       </c>
       <c r="X12" t="n">
-        <v>1056.276972769465</v>
+        <v>1062.135494226735</v>
       </c>
       <c r="Y12" t="n">
-        <v>863.7556464190443</v>
+        <v>869.6141678763138</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.3144099976419</v>
+        <v>414.3144099976424</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4945400527606</v>
+        <v>347.494540052761</v>
       </c>
       <c r="D13" t="n">
-        <v>297.2187464739616</v>
+        <v>297.2187464739619</v>
       </c>
       <c r="E13" t="n">
-        <v>248.0058318287188</v>
+        <v>248.005831828719</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3212764479342</v>
+        <v>198.3212764479343</v>
       </c>
       <c r="G13" t="n">
-        <v>132.4580706488836</v>
+        <v>132.4580706488838</v>
       </c>
       <c r="H13" t="n">
-        <v>78.19710218876514</v>
+        <v>78.19710218876526</v>
       </c>
       <c r="I13" t="n">
         <v>44.62239590123833</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5576652116671</v>
+        <v>104.557665211667</v>
       </c>
       <c r="K13" t="n">
-        <v>268.5689297794105</v>
+        <v>268.5689297794103</v>
       </c>
       <c r="L13" t="n">
-        <v>507.8767290772416</v>
+        <v>507.8767290772419</v>
       </c>
       <c r="M13" t="n">
         <v>766.6339233993394</v>
@@ -5215,34 +5215,34 @@
         <v>1260.162531829994</v>
       </c>
       <c r="P13" t="n">
-        <v>1454.754060196292</v>
+        <v>1454.754060196291</v>
       </c>
       <c r="Q13" t="n">
-        <v>1539.108648437727</v>
+        <v>1539.108648437728</v>
       </c>
       <c r="R13" t="n">
-        <v>1504.093441767036</v>
+        <v>1504.093441767037</v>
       </c>
       <c r="S13" t="n">
-        <v>1397.718594131712</v>
+        <v>1397.718594131713</v>
       </c>
       <c r="T13" t="n">
-        <v>1268.448543473927</v>
+        <v>1268.448543473928</v>
       </c>
       <c r="U13" t="n">
         <v>1084.068609551356</v>
       </c>
       <c r="V13" t="n">
-        <v>926.1294047032164</v>
+        <v>926.1294047032172</v>
       </c>
       <c r="W13" t="n">
-        <v>742.7691028140539</v>
+        <v>742.7691028140546</v>
       </c>
       <c r="X13" t="n">
-        <v>614.312738302868</v>
+        <v>614.3127383028686</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.0736790885834</v>
+        <v>495.073679088584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>865.5038829018406</v>
+        <v>1072.677281181632</v>
       </c>
       <c r="C14" t="n">
-        <v>586.3662238280864</v>
+        <v>793.5396221078781</v>
       </c>
       <c r="D14" t="n">
-        <v>316.3383586487483</v>
+        <v>793.5396221078781</v>
       </c>
       <c r="E14" t="n">
-        <v>316.3383586487483</v>
+        <v>793.5396221078781</v>
       </c>
       <c r="F14" t="n">
-        <v>316.3383586487483</v>
+        <v>629.0656320746048</v>
       </c>
       <c r="G14" t="n">
         <v>316.3383586487483</v>
       </c>
       <c r="H14" t="n">
-        <v>92.25939211794213</v>
+        <v>92.25939211794218</v>
       </c>
       <c r="I14" t="n">
         <v>44.62239590123833</v>
@@ -5279,28 +5279,28 @@
         <v>164.9191384091042</v>
       </c>
       <c r="K14" t="n">
-        <v>164.9191384091042</v>
+        <v>477.4459895919367</v>
       </c>
       <c r="L14" t="n">
-        <v>602.6063397151349</v>
+        <v>477.4459895919367</v>
       </c>
       <c r="M14" t="n">
-        <v>884.4924865501789</v>
+        <v>970.606992700849</v>
       </c>
       <c r="N14" t="n">
-        <v>1364.36252187911</v>
+        <v>1450.477028029781</v>
       </c>
       <c r="O14" t="n">
-        <v>1765.247199406364</v>
+        <v>1851.361705557034</v>
       </c>
       <c r="P14" t="n">
-        <v>2075.235537020012</v>
+        <v>2161.350043170683</v>
       </c>
       <c r="Q14" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R14" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S14" t="n">
         <v>2159.917650021224</v>
@@ -5315,13 +5315,13 @@
         <v>1654.670476936937</v>
       </c>
       <c r="W14" t="n">
-        <v>1394.931646387976</v>
+        <v>1654.670476936937</v>
       </c>
       <c r="X14" t="n">
-        <v>1115.697605502907</v>
+        <v>1654.670476936937</v>
       </c>
       <c r="Y14" t="n">
-        <v>865.5038829018406</v>
+        <v>1363.924721106213</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>618.1176835549295</v>
+        <v>704.3362036377837</v>
       </c>
       <c r="C15" t="n">
-        <v>559.2101103893225</v>
+        <v>542.6325308787384</v>
       </c>
       <c r="D15" t="n">
-        <v>420.3714733795346</v>
+        <v>403.7938938689504</v>
       </c>
       <c r="E15" t="n">
-        <v>273.3434634364058</v>
+        <v>359.5619835192599</v>
       </c>
       <c r="F15" t="n">
-        <v>230.7267069264034</v>
+        <v>327.6642850625725</v>
       </c>
       <c r="G15" t="n">
-        <v>102.3088625738053</v>
+        <v>199.2464407099744</v>
       </c>
       <c r="H15" t="n">
         <v>102.3088625738053</v>
@@ -5355,52 +5355,52 @@
         <v>44.62239590123833</v>
       </c>
       <c r="J15" t="n">
-        <v>133.6426184273642</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K15" t="n">
-        <v>412.2989766527962</v>
+        <v>323.2787541266704</v>
       </c>
       <c r="L15" t="n">
-        <v>569.8410632573834</v>
+        <v>755.2100924509778</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.043212535208</v>
+        <v>755.2100924509778</v>
       </c>
       <c r="N15" t="n">
-        <v>1674.245361813032</v>
+        <v>1209.603401633155</v>
       </c>
       <c r="O15" t="n">
         <v>1674.245361813032</v>
       </c>
       <c r="P15" t="n">
-        <v>2034.482380229163</v>
+        <v>2034.482380229164</v>
       </c>
       <c r="Q15" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R15" t="n">
-        <v>2190.623425345478</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="S15" t="n">
         <v>2043.594230323731</v>
       </c>
       <c r="T15" t="n">
-        <v>1856.161286658855</v>
+        <v>1856.161286658856</v>
       </c>
       <c r="U15" t="n">
-        <v>1637.686932127173</v>
+        <v>1637.686932127174</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.291309575507</v>
+        <v>1495.509829658361</v>
       </c>
       <c r="W15" t="n">
-        <v>1167.975440808817</v>
+        <v>1254.193960891671</v>
       </c>
       <c r="X15" t="n">
-        <v>970.0584526866115</v>
+        <v>1056.276972769466</v>
       </c>
       <c r="Y15" t="n">
-        <v>777.5371263361903</v>
+        <v>863.7556464190445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.3144099976417</v>
+        <v>414.3144099976419</v>
       </c>
       <c r="C16" t="n">
-        <v>347.4945400527604</v>
+        <v>347.4945400527605</v>
       </c>
       <c r="D16" t="n">
         <v>297.2187464739615</v>
@@ -5422,13 +5422,13 @@
         <v>248.0058318287186</v>
       </c>
       <c r="F16" t="n">
-        <v>198.3212764479341</v>
+        <v>198.321276447934</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4580706488836</v>
+        <v>132.4580706488837</v>
       </c>
       <c r="H16" t="n">
-        <v>78.19710218876516</v>
+        <v>78.1971021887652</v>
       </c>
       <c r="I16" t="n">
         <v>44.62239590123833</v>
@@ -5440,22 +5440,22 @@
         <v>268.5689297794104</v>
       </c>
       <c r="L16" t="n">
-        <v>507.8767290772421</v>
+        <v>507.876729077242</v>
       </c>
       <c r="M16" t="n">
-        <v>766.6339233993399</v>
+        <v>766.6339233993397</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.868528144629</v>
+        <v>1024.86852814463</v>
       </c>
       <c r="O16" t="n">
-        <v>1260.162531829993</v>
+        <v>1260.162531829994</v>
       </c>
       <c r="P16" t="n">
-        <v>1454.754060196291</v>
+        <v>1454.754060196292</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.108648437726</v>
+        <v>1539.108648437727</v>
       </c>
       <c r="R16" t="n">
         <v>1504.093441767036</v>
@@ -5467,19 +5467,19 @@
         <v>1268.448543473927</v>
       </c>
       <c r="U16" t="n">
-        <v>1084.068609551355</v>
+        <v>1084.068609551356</v>
       </c>
       <c r="V16" t="n">
-        <v>926.1294047032163</v>
+        <v>926.1294047032168</v>
       </c>
       <c r="W16" t="n">
-        <v>742.7691028140538</v>
+        <v>742.7691028140541</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3127383028678</v>
+        <v>614.3127383028681</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.0736790885833</v>
+        <v>495.0736790885834</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1020.558013695799</v>
       </c>
       <c r="D17" t="n">
-        <v>837.3787882641178</v>
+        <v>837.3787882641182</v>
       </c>
       <c r="E17" t="n">
-        <v>632.2378077113203</v>
+        <v>632.2378077113204</v>
       </c>
       <c r="F17" t="n">
-        <v>407.7313563625863</v>
+        <v>407.7313563625862</v>
       </c>
       <c r="G17" t="n">
-        <v>181.8527226843871</v>
+        <v>181.8527226843874</v>
       </c>
       <c r="H17" t="n">
         <v>44.62239590123833</v>
@@ -5513,52 +5513,52 @@
         <v>44.62239590123833</v>
       </c>
       <c r="J17" t="n">
-        <v>164.9191384091042</v>
+        <v>134.2784340613159</v>
       </c>
       <c r="K17" t="n">
-        <v>477.4459895919366</v>
+        <v>446.8052852441483</v>
       </c>
       <c r="L17" t="n">
-        <v>915.1331908979673</v>
+        <v>884.4924865501789</v>
       </c>
       <c r="M17" t="n">
-        <v>1408.294194006879</v>
+        <v>884.4924865501789</v>
       </c>
       <c r="N17" t="n">
-        <v>1888.164229335811</v>
+        <v>1364.36252187911</v>
       </c>
       <c r="O17" t="n">
-        <v>2075.235537020012</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P17" t="n">
         <v>2075.235537020012</v>
       </c>
       <c r="Q17" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R17" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S17" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="T17" t="n">
         <v>2198.947223846353</v>
       </c>
       <c r="U17" t="n">
-        <v>2133.753075983563</v>
+        <v>2133.753075983564</v>
       </c>
       <c r="V17" t="n">
-        <v>1986.4185412206</v>
+        <v>1986.418541220601</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.528350419297</v>
+        <v>1813.528350419298</v>
       </c>
       <c r="X17" t="n">
-        <v>1621.142949281885</v>
+        <v>1621.142949281886</v>
       </c>
       <c r="Y17" t="n">
-        <v>1417.245833198819</v>
+        <v>1417.24583319882</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>618.1176835549295</v>
+        <v>848.2587926124634</v>
       </c>
       <c r="C18" t="n">
-        <v>618.1176835549295</v>
+        <v>686.5551198534181</v>
       </c>
       <c r="D18" t="n">
-        <v>479.2790465451416</v>
+        <v>547.7164828436302</v>
       </c>
       <c r="E18" t="n">
-        <v>332.2510366020128</v>
+        <v>400.6884729005014</v>
       </c>
       <c r="F18" t="n">
-        <v>197.5572385518871</v>
+        <v>265.9946748503758</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3088625738053</v>
+        <v>137.5768304977776</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3088625738053</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I18" t="n">
         <v>44.62239590123833</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62239590123833</v>
+        <v>133.6426184273642</v>
       </c>
       <c r="K18" t="n">
-        <v>323.2787541266704</v>
+        <v>412.2989766527962</v>
       </c>
       <c r="L18" t="n">
-        <v>465.4361214936375</v>
+        <v>844.2303149771035</v>
       </c>
       <c r="M18" t="n">
-        <v>1017.638270771462</v>
+        <v>1396.432464254928</v>
       </c>
       <c r="N18" t="n">
-        <v>1569.840420049286</v>
+        <v>1406.240816465908</v>
       </c>
       <c r="O18" t="n">
-        <v>2034.482380229163</v>
+        <v>1870.882776645785</v>
       </c>
       <c r="P18" t="n">
-        <v>2034.482380229163</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="Q18" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R18" t="n">
-        <v>2190.623425345478</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S18" t="n">
-        <v>2043.594230323731</v>
+        <v>2084.090600040169</v>
       </c>
       <c r="T18" t="n">
-        <v>1856.161286658855</v>
+        <v>1896.657656375294</v>
       </c>
       <c r="U18" t="n">
-        <v>1637.686932127173</v>
+        <v>1678.183301843612</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.291309575507</v>
+        <v>1449.787679291946</v>
       </c>
       <c r="W18" t="n">
-        <v>1167.975440808817</v>
+        <v>1208.471810525255</v>
       </c>
       <c r="X18" t="n">
-        <v>970.0584526866115</v>
+        <v>1010.55482240305</v>
       </c>
       <c r="Y18" t="n">
-        <v>777.5371263361903</v>
+        <v>1007.678235393724</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>197.1030508754612</v>
+        <v>372.5079916484275</v>
       </c>
       <c r="C19" t="n">
-        <v>197.1030508754612</v>
+        <v>372.5079916484275</v>
       </c>
       <c r="D19" t="n">
-        <v>197.1030508754612</v>
+        <v>219.4360984761902</v>
       </c>
       <c r="E19" t="n">
-        <v>197.1030508754612</v>
+        <v>67.42708423750904</v>
       </c>
       <c r="F19" t="n">
-        <v>44.62239590123833</v>
+        <v>67.42708423750904</v>
       </c>
       <c r="G19" t="n">
-        <v>44.62239590123833</v>
+        <v>67.42708423750904</v>
       </c>
       <c r="H19" t="n">
-        <v>44.62239590123833</v>
+        <v>67.42708423750904</v>
       </c>
       <c r="I19" t="n">
-        <v>44.62239590123833</v>
+        <v>67.42708423750904</v>
       </c>
       <c r="J19" t="n">
         <v>44.62239590123833</v>
@@ -5692,31 +5692,31 @@
         <v>790.31604761669</v>
       </c>
       <c r="Q19" t="n">
-        <v>790.31604761669</v>
+        <v>773.5872760932805</v>
       </c>
       <c r="R19" t="n">
-        <v>790.31604761669</v>
+        <v>773.5872760932805</v>
       </c>
       <c r="S19" t="n">
-        <v>768.3008667737414</v>
+        <v>754.0610682056133</v>
       </c>
       <c r="T19" t="n">
-        <v>725.8794558636137</v>
+        <v>711.6396572954853</v>
       </c>
       <c r="U19" t="n">
-        <v>628.3481616886997</v>
+        <v>614.1083631205712</v>
       </c>
       <c r="V19" t="n">
-        <v>557.257596588218</v>
+        <v>543.0177980200892</v>
       </c>
       <c r="W19" t="n">
-        <v>460.7459344467127</v>
+        <v>446.5061358785838</v>
       </c>
       <c r="X19" t="n">
-        <v>419.1382096831841</v>
+        <v>404.898411115055</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.1030508754612</v>
+        <v>372.5079916484275</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.847033021897</v>
+        <v>1212.847033021896</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.5580136958</v>
+        <v>1020.558013695799</v>
       </c>
       <c r="D20" t="n">
-        <v>837.3787882641191</v>
+        <v>837.378788264118</v>
       </c>
       <c r="E20" t="n">
-        <v>632.2378077113216</v>
+        <v>632.2378077113203</v>
       </c>
       <c r="F20" t="n">
-        <v>407.7313563625876</v>
+        <v>407.7313563625862</v>
       </c>
       <c r="G20" t="n">
-        <v>181.8527226843872</v>
+        <v>181.8527226843874</v>
       </c>
       <c r="H20" t="n">
         <v>44.62239590123833</v>
@@ -5750,34 +5750,34 @@
         <v>44.62239590123833</v>
       </c>
       <c r="J20" t="n">
-        <v>164.9191384091042</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K20" t="n">
-        <v>477.4459895919366</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="L20" t="n">
-        <v>915.1331908979673</v>
+        <v>391.3314834412667</v>
       </c>
       <c r="M20" t="n">
-        <v>1408.294194006879</v>
+        <v>884.4924865501789</v>
       </c>
       <c r="N20" t="n">
-        <v>1888.164229335811</v>
+        <v>1364.36252187911</v>
       </c>
       <c r="O20" t="n">
-        <v>1921.131457448268</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P20" t="n">
-        <v>2231.119795061916</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q20" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R20" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S20" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="T20" t="n">
         <v>2198.947223846353</v>
@@ -5792,7 +5792,7 @@
         <v>1813.528350419298</v>
       </c>
       <c r="X20" t="n">
-        <v>1621.142949281887</v>
+        <v>1621.142949281886</v>
       </c>
       <c r="Y20" t="n">
         <v>1417.24583319882</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>762.9003928815314</v>
+        <v>626.886513663326</v>
       </c>
       <c r="C21" t="n">
-        <v>601.1967201224861</v>
+        <v>465.1828409042807</v>
       </c>
       <c r="D21" t="n">
-        <v>462.3580831126982</v>
+        <v>326.3442038944928</v>
       </c>
       <c r="E21" t="n">
-        <v>462.3580831126982</v>
+        <v>179.316193951364</v>
       </c>
       <c r="F21" t="n">
-        <v>327.6642850625725</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="G21" t="n">
-        <v>199.2464407099744</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3088625738053</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I21" t="n">
         <v>44.62239590123833</v>
       </c>
       <c r="J21" t="n">
-        <v>133.6426184273642</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K21" t="n">
-        <v>230.1421980020831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="L21" t="n">
-        <v>662.0735363263905</v>
+        <v>301.8365179102593</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.275685604215</v>
+        <v>854.0386671880837</v>
       </c>
       <c r="N21" t="n">
-        <v>1766.477834882039</v>
+        <v>1406.240816465908</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.119795061916</v>
+        <v>1870.882776645785</v>
       </c>
       <c r="P21" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="Q21" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R21" t="n">
-        <v>2190.623425345478</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="S21" t="n">
         <v>2043.594230323731</v>
       </c>
       <c r="T21" t="n">
-        <v>1856.161286658855</v>
+        <v>1864.930116767252</v>
       </c>
       <c r="U21" t="n">
-        <v>1637.686932127173</v>
+        <v>1646.455762235569</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.291309575507</v>
+        <v>1418.060139683903</v>
       </c>
       <c r="W21" t="n">
-        <v>1312.758150135419</v>
+        <v>1176.744270917213</v>
       </c>
       <c r="X21" t="n">
-        <v>1114.841162013213</v>
+        <v>978.827282795008</v>
       </c>
       <c r="Y21" t="n">
-        <v>922.3198356627922</v>
+        <v>786.3059564445869</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196.6314101399195</v>
+        <v>199.5920238307416</v>
       </c>
       <c r="C22" t="n">
-        <v>196.6314101399195</v>
+        <v>199.5920238307416</v>
       </c>
       <c r="D22" t="n">
-        <v>196.6314101399195</v>
+        <v>199.5920238307416</v>
       </c>
       <c r="E22" t="n">
-        <v>44.62239590123833</v>
+        <v>199.5920238307416</v>
       </c>
       <c r="F22" t="n">
-        <v>44.62239590123833</v>
+        <v>199.5920238307416</v>
       </c>
       <c r="G22" t="n">
-        <v>44.62239590123833</v>
+        <v>199.5920238307416</v>
       </c>
       <c r="H22" t="n">
         <v>44.62239590123833</v>
@@ -5935,25 +5935,25 @@
         <v>790.31604761669</v>
       </c>
       <c r="S22" t="n">
-        <v>770.789839729023</v>
+        <v>581.1451003879274</v>
       </c>
       <c r="T22" t="n">
-        <v>728.3684288188953</v>
+        <v>538.7236894777994</v>
       </c>
       <c r="U22" t="n">
-        <v>630.8371346439814</v>
+        <v>441.1923953028854</v>
       </c>
       <c r="V22" t="n">
-        <v>370.101830202404</v>
+        <v>370.1018302024034</v>
       </c>
       <c r="W22" t="n">
-        <v>273.5901680608987</v>
+        <v>273.5901680608979</v>
       </c>
       <c r="X22" t="n">
-        <v>231.9824432973701</v>
+        <v>231.9824432973691</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.6314101399195</v>
+        <v>199.5920238307416</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1212.847033021896</v>
+        <v>1212.847033021898</v>
       </c>
       <c r="C23" t="n">
-        <v>1020.558013695799</v>
+        <v>1020.558013695801</v>
       </c>
       <c r="D23" t="n">
-        <v>837.3787882641177</v>
+        <v>837.3787882641197</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2378077113202</v>
+        <v>632.2378077113221</v>
       </c>
       <c r="F23" t="n">
-        <v>407.7313563625862</v>
+        <v>407.731356362588</v>
       </c>
       <c r="G23" t="n">
-        <v>181.8527226843871</v>
+        <v>181.8527226843875</v>
       </c>
       <c r="H23" t="n">
-        <v>44.6223959012383</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="I23" t="n">
-        <v>44.6223959012383</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="J23" t="n">
-        <v>164.9191384091042</v>
+        <v>164.9191384091043</v>
       </c>
       <c r="K23" t="n">
-        <v>164.9191384091042</v>
+        <v>477.4459895919367</v>
       </c>
       <c r="L23" t="n">
-        <v>602.6063397151348</v>
+        <v>915.1331908979673</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.767342824047</v>
+        <v>1408.294194006879</v>
       </c>
       <c r="N23" t="n">
-        <v>1575.637378152978</v>
+        <v>1888.164229335811</v>
       </c>
       <c r="O23" t="n">
-        <v>1976.522055680231</v>
+        <v>2231.119795061919</v>
       </c>
       <c r="P23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061919</v>
       </c>
       <c r="Q23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061919</v>
       </c>
       <c r="R23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061919</v>
       </c>
       <c r="S23" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061919</v>
       </c>
       <c r="T23" t="n">
-        <v>2198.947223846352</v>
+        <v>2198.947223846356</v>
       </c>
       <c r="U23" t="n">
-        <v>2133.753075983563</v>
+        <v>2133.753075983567</v>
       </c>
       <c r="V23" t="n">
-        <v>1986.4185412206</v>
+        <v>1986.418541220603</v>
       </c>
       <c r="W23" t="n">
-        <v>1813.528350419297</v>
+        <v>1813.5283504193</v>
       </c>
       <c r="X23" t="n">
-        <v>1621.142949281886</v>
+        <v>1621.142949281888</v>
       </c>
       <c r="Y23" t="n">
-        <v>1417.245833198819</v>
+        <v>1417.245833198822</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.6140532713662</v>
+        <v>626.886513663326</v>
       </c>
       <c r="C24" t="n">
-        <v>496.9103805123209</v>
+        <v>465.1828409042807</v>
       </c>
       <c r="D24" t="n">
-        <v>358.071743502533</v>
+        <v>326.3442038944928</v>
       </c>
       <c r="E24" t="n">
-        <v>307.7340383039621</v>
+        <v>179.316193951364</v>
       </c>
       <c r="F24" t="n">
-        <v>173.0402402538364</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="G24" t="n">
-        <v>44.6223959012383</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="H24" t="n">
-        <v>44.6223959012383</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="I24" t="n">
-        <v>44.6223959012383</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="J24" t="n">
-        <v>133.6426184273642</v>
+        <v>133.6426184273643</v>
       </c>
       <c r="K24" t="n">
-        <v>133.6426184273642</v>
+        <v>412.2989766527963</v>
       </c>
       <c r="L24" t="n">
-        <v>565.5739567516715</v>
+        <v>412.2989766527963</v>
       </c>
       <c r="M24" t="n">
-        <v>657.4012523553293</v>
+        <v>964.5011259306211</v>
       </c>
       <c r="N24" t="n">
-        <v>1209.603401633153</v>
+        <v>1516.703275208446</v>
       </c>
       <c r="O24" t="n">
-        <v>1674.245361813031</v>
+        <v>1674.245361813035</v>
       </c>
       <c r="P24" t="n">
-        <v>2034.482380229162</v>
+        <v>2034.482380229166</v>
       </c>
       <c r="Q24" t="n">
-        <v>2231.119795061915</v>
+        <v>2231.119795061919</v>
       </c>
       <c r="R24" t="n">
-        <v>2231.119795061915</v>
+        <v>2190.623425345481</v>
       </c>
       <c r="S24" t="n">
-        <v>2084.090600040167</v>
+        <v>2043.594230323733</v>
       </c>
       <c r="T24" t="n">
-        <v>1896.657656375292</v>
+        <v>1864.930116767252</v>
       </c>
       <c r="U24" t="n">
-        <v>1678.18330184361</v>
+        <v>1646.455762235569</v>
       </c>
       <c r="V24" t="n">
-        <v>1449.787679291944</v>
+        <v>1418.060139683903</v>
       </c>
       <c r="W24" t="n">
-        <v>1208.471810525254</v>
+        <v>1176.744270917213</v>
       </c>
       <c r="X24" t="n">
-        <v>1010.554822403048</v>
+        <v>978.827282795008</v>
       </c>
       <c r="Y24" t="n">
-        <v>818.033496052627</v>
+        <v>786.3059564445869</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="C25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="D25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="E25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="F25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="G25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="H25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="I25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
       <c r="J25" t="n">
-        <v>44.6223959012383</v>
+        <v>44.62239590123838</v>
       </c>
       <c r="K25" t="n">
         <v>107.8832032574528</v>
@@ -6169,28 +6169,28 @@
         <v>790.31604761669</v>
       </c>
       <c r="R25" t="n">
-        <v>790.31604761669</v>
+        <v>652.504741352561</v>
       </c>
       <c r="S25" t="n">
-        <v>615.8202117995185</v>
+        <v>467.8193740002058</v>
       </c>
       <c r="T25" t="n">
-        <v>383.7540615482951</v>
+        <v>425.3979630900778</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2227673733812</v>
+        <v>327.8666689151637</v>
       </c>
       <c r="V25" t="n">
-        <v>215.1322022728995</v>
+        <v>256.7761038146817</v>
       </c>
       <c r="W25" t="n">
-        <v>118.6205401313942</v>
+        <v>160.2644416731763</v>
       </c>
       <c r="X25" t="n">
-        <v>77.01281536786558</v>
+        <v>118.6567169096475</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.6223959012383</v>
+        <v>86.26629744301997</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6203,46 @@
         <v>1807.042632173053</v>
       </c>
       <c r="C26" t="n">
-        <v>1527.904973099298</v>
+        <v>1527.904973099299</v>
       </c>
       <c r="D26" t="n">
-        <v>1257.87710791996</v>
+        <v>1257.877107919961</v>
       </c>
       <c r="E26" t="n">
-        <v>965.8874876195052</v>
+        <v>965.8874876195059</v>
       </c>
       <c r="F26" t="n">
-        <v>654.5323965231139</v>
+        <v>654.5323965231146</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8051230972574</v>
+        <v>341.8051230972579</v>
       </c>
       <c r="H26" t="n">
-        <v>117.7261565664512</v>
+        <v>117.7261565664511</v>
       </c>
       <c r="I26" t="n">
         <v>70.08916034974733</v>
       </c>
       <c r="J26" t="n">
-        <v>190.3859028576132</v>
+        <v>291.1363600691421</v>
       </c>
       <c r="K26" t="n">
-        <v>603.6632112519745</v>
+        <v>704.4136684635034</v>
       </c>
       <c r="L26" t="n">
-        <v>1142.100869769534</v>
+        <v>1242.851326981063</v>
       </c>
       <c r="M26" t="n">
-        <v>1736.012330089975</v>
+        <v>1836.762787301504</v>
       </c>
       <c r="N26" t="n">
-        <v>2316.632822630435</v>
+        <v>2417.383279841964</v>
       </c>
       <c r="O26" t="n">
-        <v>2818.267957369217</v>
+        <v>2919.018414580746</v>
       </c>
       <c r="P26" t="n">
-        <v>3229.006752194394</v>
+        <v>3229.006752194395</v>
       </c>
       <c r="Q26" t="n">
         <v>3456.795972535712</v>
@@ -6251,7 +6251,7 @@
         <v>3504.458017487366</v>
       </c>
       <c r="S26" t="n">
-        <v>3433.255872446673</v>
+        <v>3433.255872446674</v>
       </c>
       <c r="T26" t="n">
         <v>3314.234661483453</v>
@@ -6266,7 +6266,7 @@
         <v>2668.269868813426</v>
       </c>
       <c r="X26" t="n">
-        <v>2389.035827928357</v>
+        <v>2389.035827928358</v>
       </c>
       <c r="Y26" t="n">
         <v>2098.290072097634</v>
@@ -6312,7 +6312,7 @@
         <v>869.6970794256126</v>
       </c>
       <c r="M27" t="n">
-        <v>936.4267363588565</v>
+        <v>1431.877093263435</v>
       </c>
       <c r="N27" t="n">
         <v>1526.880885351394</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.7811744461511</v>
+        <v>439.7811744461508</v>
       </c>
       <c r="C28" t="n">
-        <v>372.9613045012697</v>
+        <v>372.9613045012694</v>
       </c>
       <c r="D28" t="n">
-        <v>322.6855109224707</v>
+        <v>322.6855109224705</v>
       </c>
       <c r="E28" t="n">
-        <v>273.4725962772278</v>
+        <v>273.4725962772276</v>
       </c>
       <c r="F28" t="n">
-        <v>223.7880408964432</v>
+        <v>223.7880408964431</v>
       </c>
       <c r="G28" t="n">
         <v>157.9248350973926</v>
@@ -6388,22 +6388,22 @@
         <v>294.0356942279194</v>
       </c>
       <c r="L28" t="n">
-        <v>533.343493525751</v>
+        <v>533.3434935257501</v>
       </c>
       <c r="M28" t="n">
-        <v>792.1006878478487</v>
+        <v>792.1006878478479</v>
       </c>
       <c r="N28" t="n">
-        <v>1050.335292593139</v>
+        <v>1050.335292593138</v>
       </c>
       <c r="O28" t="n">
         <v>1285.629296278503</v>
       </c>
       <c r="P28" t="n">
-        <v>1480.220824644801</v>
+        <v>1480.2208246448</v>
       </c>
       <c r="Q28" t="n">
-        <v>1564.575412886236</v>
+        <v>1564.575412886235</v>
       </c>
       <c r="R28" t="n">
         <v>1529.560206215545</v>
@@ -6418,16 +6418,16 @@
         <v>1109.535373999865</v>
       </c>
       <c r="V28" t="n">
-        <v>951.5961691517259</v>
+        <v>951.5961691517253</v>
       </c>
       <c r="W28" t="n">
-        <v>768.2358672625633</v>
+        <v>768.2358672625628</v>
       </c>
       <c r="X28" t="n">
-        <v>639.7795027513773</v>
+        <v>639.7795027513769</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.5404435370926</v>
+        <v>520.5404435370923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1807.042632173054</v>
+        <v>1807.042632173052</v>
       </c>
       <c r="C29" t="n">
-        <v>1527.904973099299</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D29" t="n">
-        <v>1257.877107919961</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E29" t="n">
-        <v>965.8874876195064</v>
+        <v>965.8874876195048</v>
       </c>
       <c r="F29" t="n">
-        <v>654.532396523115</v>
+        <v>654.5323965231133</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8051230972583</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H29" t="n">
         <v>117.7261565664512</v>
       </c>
       <c r="I29" t="n">
-        <v>70.08916034974735</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J29" t="n">
         <v>291.136360069142</v>
       </c>
       <c r="K29" t="n">
-        <v>704.4136684635032</v>
+        <v>704.4136684635033</v>
       </c>
       <c r="L29" t="n">
         <v>1242.851326981063</v>
@@ -6473,40 +6473,40 @@
         <v>1836.762787301504</v>
       </c>
       <c r="N29" t="n">
-        <v>2417.383279841964</v>
+        <v>2388.537784929848</v>
       </c>
       <c r="O29" t="n">
-        <v>2919.018414580746</v>
+        <v>2890.17291966863</v>
       </c>
       <c r="P29" t="n">
-        <v>3247.823302233934</v>
+        <v>3200.161257282279</v>
       </c>
       <c r="Q29" t="n">
-        <v>3504.458017487367</v>
+        <v>3456.795972535712</v>
       </c>
       <c r="R29" t="n">
-        <v>3504.458017487367</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="S29" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T29" t="n">
-        <v>3314.234661483454</v>
+        <v>3314.234661483453</v>
       </c>
       <c r="U29" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V29" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W29" t="n">
-        <v>2668.269868813426</v>
+        <v>2668.269868813425</v>
       </c>
       <c r="X29" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y29" t="n">
-        <v>2098.290072097634</v>
+        <v>2098.290072097633</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>127.7756270223143</v>
       </c>
       <c r="I30" t="n">
-        <v>70.08916034974735</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J30" t="n">
-        <v>159.1093828758732</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="K30" t="n">
-        <v>437.7657411013053</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="L30" t="n">
-        <v>869.6970794256125</v>
+        <v>502.0204986740546</v>
       </c>
       <c r="M30" t="n">
-        <v>936.4267363588572</v>
+        <v>1064.200512511877</v>
       </c>
       <c r="N30" t="n">
-        <v>1526.880885351395</v>
+        <v>1654.654661504415</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.522845531272</v>
+        <v>2119.296621684292</v>
       </c>
       <c r="P30" t="n">
-        <v>2351.759863947403</v>
+        <v>2479.533640100423</v>
       </c>
       <c r="Q30" t="n">
         <v>2548.397278780156</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7811744461511</v>
+        <v>439.7811744461513</v>
       </c>
       <c r="C31" t="n">
-        <v>372.9613045012696</v>
+        <v>372.9613045012699</v>
       </c>
       <c r="D31" t="n">
-        <v>322.6855109224707</v>
+        <v>322.6855109224709</v>
       </c>
       <c r="E31" t="n">
-        <v>273.4725962772278</v>
+        <v>273.472596277228</v>
       </c>
       <c r="F31" t="n">
-        <v>223.7880408964432</v>
+        <v>223.7880408964434</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9248350973927</v>
+        <v>157.9248350973928</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6638666372742</v>
+        <v>103.6638666372744</v>
       </c>
       <c r="I31" t="n">
-        <v>70.08916034974735</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J31" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601759</v>
       </c>
       <c r="K31" t="n">
-        <v>294.0356942279193</v>
+        <v>294.0356942279192</v>
       </c>
       <c r="L31" t="n">
-        <v>533.343493525751</v>
+        <v>533.3434935257509</v>
       </c>
       <c r="M31" t="n">
-        <v>792.1006878478486</v>
+        <v>792.1006878478487</v>
       </c>
       <c r="N31" t="n">
         <v>1050.335292593139</v>
@@ -6643,7 +6643,7 @@
         <v>1564.575412886236</v>
       </c>
       <c r="R31" t="n">
-        <v>1529.560206215545</v>
+        <v>1529.560206215546</v>
       </c>
       <c r="S31" t="n">
         <v>1423.185358580221</v>
@@ -6655,16 +6655,16 @@
         <v>1109.535373999865</v>
       </c>
       <c r="V31" t="n">
-        <v>951.5961691517256</v>
+        <v>951.5961691517259</v>
       </c>
       <c r="W31" t="n">
-        <v>768.235867262563</v>
+        <v>768.2358672625633</v>
       </c>
       <c r="X31" t="n">
-        <v>639.7795027513771</v>
+        <v>639.7795027513773</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.5404435370926</v>
+        <v>520.5404435370929</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6689,58 @@
         <v>654.5323965231141</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8051230972575</v>
+        <v>341.8051230972578</v>
       </c>
       <c r="H32" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I32" t="n">
-        <v>70.08916034974735</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J32" t="n">
-        <v>190.3859028576132</v>
+        <v>291.1363600691421</v>
       </c>
       <c r="K32" t="n">
-        <v>603.6632112519744</v>
+        <v>704.4136684635034</v>
       </c>
       <c r="L32" t="n">
-        <v>1142.100869769534</v>
+        <v>1242.851326981063</v>
       </c>
       <c r="M32" t="n">
-        <v>1736.012330089975</v>
+        <v>1836.762787301504</v>
       </c>
       <c r="N32" t="n">
-        <v>2316.632822630435</v>
+        <v>2417.383279841964</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.422462457102</v>
+        <v>2890.17291966863</v>
       </c>
       <c r="P32" t="n">
-        <v>3200.16125728228</v>
+        <v>3200.161257282279</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.795972535713</v>
+        <v>3456.795972535712</v>
       </c>
       <c r="R32" t="n">
-        <v>3504.458017487367</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="S32" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T32" t="n">
-        <v>3314.234661483454</v>
+        <v>3314.234661483453</v>
       </c>
       <c r="U32" t="n">
         <v>3162.191873873007</v>
       </c>
       <c r="V32" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W32" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X32" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y32" t="n">
         <v>2098.290072097634</v>
@@ -6774,28 +6774,28 @@
         <v>127.7756270223143</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08916034974735</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J33" t="n">
         <v>159.1093828758732</v>
       </c>
       <c r="K33" t="n">
-        <v>437.7657411013053</v>
+        <v>159.1093828758732</v>
       </c>
       <c r="L33" t="n">
-        <v>869.6970794256126</v>
+        <v>591.0407212001805</v>
       </c>
       <c r="M33" t="n">
-        <v>1431.877093263435</v>
+        <v>1153.220735038003</v>
       </c>
       <c r="N33" t="n">
-        <v>1526.880885351394</v>
+        <v>1743.674884030541</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.522845531271</v>
+        <v>2208.316844210418</v>
       </c>
       <c r="P33" t="n">
-        <v>2351.759863947403</v>
+        <v>2548.397278780156</v>
       </c>
       <c r="Q33" t="n">
         <v>2548.397278780156</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.7811744461516</v>
+        <v>439.7811744461509</v>
       </c>
       <c r="C34" t="n">
-        <v>372.9613045012701</v>
+        <v>372.9613045012695</v>
       </c>
       <c r="D34" t="n">
-        <v>322.6855109224711</v>
+        <v>322.6855109224705</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4725962772281</v>
+        <v>273.4725962772277</v>
       </c>
       <c r="F34" t="n">
-        <v>223.7880408964434</v>
+        <v>223.7880408964431</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9248350973928</v>
+        <v>157.9248350973926</v>
       </c>
       <c r="H34" t="n">
-        <v>103.6638666372743</v>
+        <v>103.6638666372742</v>
       </c>
       <c r="I34" t="n">
-        <v>70.08916034974735</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J34" t="n">
-        <v>130.024429660176</v>
+        <v>130.0244296601761</v>
       </c>
       <c r="K34" t="n">
-        <v>294.0356942279192</v>
+        <v>294.0356942279197</v>
       </c>
       <c r="L34" t="n">
         <v>533.3434935257508</v>
       </c>
       <c r="M34" t="n">
-        <v>792.1006878478483</v>
+        <v>792.1006878478488</v>
       </c>
       <c r="N34" t="n">
-        <v>1050.335292593141</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O34" t="n">
-        <v>1285.629296278505</v>
+        <v>1285.629296278504</v>
       </c>
       <c r="P34" t="n">
-        <v>1480.220824644802</v>
+        <v>1480.220824644801</v>
       </c>
       <c r="Q34" t="n">
-        <v>1564.575412886237</v>
+        <v>1564.575412886235</v>
       </c>
       <c r="R34" t="n">
-        <v>1529.560206215547</v>
+        <v>1529.560206215545</v>
       </c>
       <c r="S34" t="n">
-        <v>1423.185358580222</v>
+        <v>1423.185358580221</v>
       </c>
       <c r="T34" t="n">
-        <v>1293.915307922437</v>
+        <v>1293.915307922436</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.535373999866</v>
+        <v>1109.535373999865</v>
       </c>
       <c r="V34" t="n">
-        <v>951.5961691517266</v>
+        <v>951.5961691517257</v>
       </c>
       <c r="W34" t="n">
-        <v>768.2358672625639</v>
+        <v>768.2358672625631</v>
       </c>
       <c r="X34" t="n">
-        <v>639.7795027513779</v>
+        <v>639.779502751377</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.5404435370932</v>
+        <v>520.5404435370924</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6917,43 @@
         <v>1136.319482346042</v>
       </c>
       <c r="D35" t="n">
-        <v>931.1790273445976</v>
+        <v>931.1790273445974</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0768172220361</v>
+        <v>704.076817222036</v>
       </c>
       <c r="F35" t="n">
-        <v>457.609136303538</v>
+        <v>457.6091363035378</v>
       </c>
       <c r="G35" t="n">
         <v>209.7692730555742</v>
       </c>
       <c r="H35" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I35" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J35" t="n">
-        <v>170.8744592105273</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K35" t="n">
-        <v>251.410322206389</v>
+        <v>363.1045678854939</v>
       </c>
       <c r="L35" t="n">
-        <v>689.0975235124197</v>
+        <v>800.7917691915245</v>
       </c>
       <c r="M35" t="n">
-        <v>1182.258526621332</v>
+        <v>1293.952772300437</v>
       </c>
       <c r="N35" t="n">
-        <v>1662.128561950263</v>
+        <v>1662.128561950264</v>
       </c>
       <c r="O35" t="n">
-        <v>2063.013239477516</v>
+        <v>2063.013239477517</v>
       </c>
       <c r="P35" t="n">
-        <v>2373.001577091165</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q35" t="n">
         <v>2528.88583513307</v>
@@ -6965,13 +6965,13 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T35" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U35" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V35" t="n">
-        <v>2211.986157719663</v>
+        <v>2211.986157719664</v>
       </c>
       <c r="W35" t="n">
         <v>2017.134737348596</v>
@@ -6999,37 +6999,37 @@
         <v>615.34141385725</v>
       </c>
       <c r="E36" t="n">
-        <v>468.3134039141212</v>
+        <v>468.3134039141213</v>
       </c>
       <c r="F36" t="n">
         <v>333.6196058639956</v>
       </c>
       <c r="G36" t="n">
-        <v>205.2017615113974</v>
+        <v>205.2017615113975</v>
       </c>
       <c r="H36" t="n">
         <v>108.2641833752284</v>
       </c>
       <c r="I36" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J36" t="n">
         <v>139.5979392287873</v>
       </c>
       <c r="K36" t="n">
-        <v>418.2542974542193</v>
+        <v>139.5979392287873</v>
       </c>
       <c r="L36" t="n">
-        <v>850.1856357785266</v>
+        <v>571.5292775530946</v>
       </c>
       <c r="M36" t="n">
-        <v>916.9152927117702</v>
+        <v>1133.709291390917</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.369441704308</v>
+        <v>1724.163440383455</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.011401884185</v>
+        <v>2188.805400563332</v>
       </c>
       <c r="P36" t="n">
         <v>2332.248420300316</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.90810830053401</v>
+        <v>225.5916180718652</v>
       </c>
       <c r="C37" t="n">
-        <v>55.97564853354596</v>
+        <v>223.6591583048771</v>
       </c>
       <c r="D37" t="n">
-        <v>55.97564853354596</v>
+        <v>223.6591583048771</v>
       </c>
       <c r="E37" t="n">
-        <v>55.97564853354596</v>
+        <v>93.1974138656002</v>
       </c>
       <c r="F37" t="n">
-        <v>55.97564853354596</v>
+        <v>93.1974138656002</v>
       </c>
       <c r="G37" t="n">
-        <v>50.57771670266139</v>
+        <v>92.22161824444299</v>
       </c>
       <c r="H37" t="n">
-        <v>50.57771670266139</v>
+        <v>92.22161824444299</v>
       </c>
       <c r="I37" t="n">
-        <v>50.57771670266139</v>
+        <v>92.22161824444299</v>
       </c>
       <c r="J37" t="n">
-        <v>50.57771670266139</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K37" t="n">
         <v>113.8385240588759</v>
       </c>
       <c r="L37" t="n">
-        <v>252.3958661451786</v>
+        <v>252.3958661451787</v>
       </c>
       <c r="M37" t="n">
         <v>410.4026032557475</v>
       </c>
       <c r="N37" t="n">
-        <v>567.8867507895087</v>
+        <v>567.8867507895088</v>
       </c>
       <c r="O37" t="n">
         <v>702.4302972633445</v>
@@ -7123,22 +7123,22 @@
         <v>754.7839309606821</v>
       </c>
       <c r="T37" t="n">
-        <v>522.7177807094588</v>
+        <v>690.4012904807904</v>
       </c>
       <c r="U37" t="n">
-        <v>403.225256964781</v>
+        <v>570.9087667361125</v>
       </c>
       <c r="V37" t="n">
-        <v>310.1734622945352</v>
+        <v>477.8569720658667</v>
       </c>
       <c r="W37" t="n">
-        <v>191.700570583266</v>
+        <v>359.3840803545974</v>
       </c>
       <c r="X37" t="n">
-        <v>128.1316162499734</v>
+        <v>295.8151260213048</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.77996721358218</v>
+        <v>241.4634769849135</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.569731241904</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C38" t="n">
-        <v>1136.319482346043</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D38" t="n">
-        <v>931.1790273445985</v>
+        <v>931.1790273445972</v>
       </c>
       <c r="E38" t="n">
-        <v>704.0768172220369</v>
+        <v>704.0768172220357</v>
       </c>
       <c r="F38" t="n">
-        <v>457.6091363035389</v>
+        <v>457.6091363035375</v>
       </c>
       <c r="G38" t="n">
         <v>209.7692730555742</v>
@@ -7175,16 +7175,16 @@
         <v>170.8744592105273</v>
       </c>
       <c r="K38" t="n">
-        <v>251.4103222063899</v>
+        <v>483.4013103933597</v>
       </c>
       <c r="L38" t="n">
-        <v>689.0975235124206</v>
+        <v>921.0885116993904</v>
       </c>
       <c r="M38" t="n">
-        <v>1182.258526621333</v>
+        <v>1414.249514808303</v>
       </c>
       <c r="N38" t="n">
-        <v>1662.128561950264</v>
+        <v>1894.119550137234</v>
       </c>
       <c r="O38" t="n">
         <v>2063.013239477517</v>
@@ -7202,22 +7202,22 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T38" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U38" t="n">
         <v>2381.281922052391</v>
       </c>
       <c r="V38" t="n">
-        <v>2211.986157719664</v>
+        <v>2211.986157719663</v>
       </c>
       <c r="W38" t="n">
-        <v>2017.134737348597</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.788106641422</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.929760988592</v>
+        <v>1576.929760988591</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.8837236260832</v>
+        <v>915.8837236260837</v>
       </c>
       <c r="C39" t="n">
-        <v>754.1800508670381</v>
+        <v>754.1800508670385</v>
       </c>
       <c r="D39" t="n">
-        <v>615.3414138572502</v>
+        <v>615.3414138572507</v>
       </c>
       <c r="E39" t="n">
-        <v>468.3134039141214</v>
+        <v>468.3134039141219</v>
       </c>
       <c r="F39" t="n">
-        <v>333.6196058639957</v>
+        <v>333.6196058639962</v>
       </c>
       <c r="G39" t="n">
         <v>205.2017615113978</v>
@@ -7251,25 +7251,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J39" t="n">
-        <v>139.5979392287873</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K39" t="n">
-        <v>418.2542974542193</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="L39" t="n">
-        <v>418.2542974542193</v>
+        <v>354.735278873948</v>
       </c>
       <c r="M39" t="n">
-        <v>980.4343112920419</v>
+        <v>916.9152927117707</v>
       </c>
       <c r="N39" t="n">
-        <v>1570.888460284579</v>
+        <v>1507.369441704308</v>
       </c>
       <c r="O39" t="n">
-        <v>2035.530420464457</v>
+        <v>1972.011401884185</v>
       </c>
       <c r="P39" t="n">
-        <v>2395.767438880588</v>
+        <v>2332.248420300317</v>
       </c>
       <c r="Q39" t="n">
         <v>2528.88583513307</v>
@@ -7281,7 +7281,7 @@
         <v>2341.360270394885</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.927326730009</v>
+        <v>2153.92732673001</v>
       </c>
       <c r="U39" t="n">
         <v>1935.452972198327</v>
@@ -7293,10 +7293,10 @@
         <v>1465.741480879971</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.824492757765</v>
+        <v>1267.824492757766</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.303166407344</v>
+        <v>1075.303166407345</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>225.5916180718656</v>
+        <v>208.8628465484558</v>
       </c>
       <c r="C40" t="n">
-        <v>223.6591583048775</v>
+        <v>206.9303867814677</v>
       </c>
       <c r="D40" t="n">
-        <v>223.6591583048775</v>
+        <v>206.9303867814677</v>
       </c>
       <c r="E40" t="n">
-        <v>187.9243182047837</v>
+        <v>54.92137254278649</v>
       </c>
       <c r="F40" t="n">
-        <v>187.9243182047837</v>
+        <v>54.92137254278649</v>
       </c>
       <c r="G40" t="n">
-        <v>186.9485225836266</v>
+        <v>53.94557692162928</v>
       </c>
       <c r="H40" t="n">
-        <v>186.9485225836266</v>
+        <v>53.94557692162928</v>
       </c>
       <c r="I40" t="n">
-        <v>50.57771670266141</v>
+        <v>53.94557692162928</v>
       </c>
       <c r="J40" t="n">
         <v>50.57771670266141</v>
@@ -7351,31 +7351,31 @@
         <v>796.2713684181131</v>
       </c>
       <c r="Q40" t="n">
-        <v>796.2713684181131</v>
+        <v>779.5425968947036</v>
       </c>
       <c r="R40" t="n">
-        <v>796.2713684181131</v>
+        <v>779.5425968947036</v>
       </c>
       <c r="S40" t="n">
-        <v>754.7839309606821</v>
+        <v>738.0551594372727</v>
       </c>
       <c r="T40" t="n">
-        <v>690.4012904807904</v>
+        <v>673.6725189573809</v>
       </c>
       <c r="U40" t="n">
-        <v>570.9087667361125</v>
+        <v>554.179995212703</v>
       </c>
       <c r="V40" t="n">
-        <v>477.8569720658668</v>
+        <v>461.1282005424573</v>
       </c>
       <c r="W40" t="n">
-        <v>359.3840803545976</v>
+        <v>342.6553088311879</v>
       </c>
       <c r="X40" t="n">
-        <v>295.815126021305</v>
+        <v>279.0863544978953</v>
       </c>
       <c r="Y40" t="n">
-        <v>241.4634769849137</v>
+        <v>224.734705461504</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J41" t="n">
-        <v>170.8744592105273</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K41" t="n">
-        <v>483.4013103933597</v>
+        <v>363.1045678854939</v>
       </c>
       <c r="L41" t="n">
         <v>689.0975235124206</v>
@@ -7491,22 +7491,22 @@
         <v>139.5979392287873</v>
       </c>
       <c r="K42" t="n">
-        <v>418.2542974542193</v>
+        <v>418.2542974542194</v>
       </c>
       <c r="L42" t="n">
-        <v>850.1856357785266</v>
+        <v>850.1856357785267</v>
       </c>
       <c r="M42" t="n">
         <v>1412.365649616349</v>
       </c>
       <c r="N42" t="n">
-        <v>2002.819798608887</v>
+        <v>1507.369441704308</v>
       </c>
       <c r="O42" t="n">
-        <v>2002.819798608887</v>
+        <v>1972.011401884185</v>
       </c>
       <c r="P42" t="n">
-        <v>2363.056817025018</v>
+        <v>2332.248420300316</v>
       </c>
       <c r="Q42" t="n">
         <v>2528.88583513307</v>
@@ -7588,28 +7588,28 @@
         <v>796.2713684181131</v>
       </c>
       <c r="Q43" t="n">
-        <v>796.2713684181131</v>
+        <v>791.8492322083864</v>
       </c>
       <c r="R43" t="n">
-        <v>796.2713684181131</v>
+        <v>791.8492322083864</v>
       </c>
       <c r="S43" t="n">
-        <v>754.7839309606821</v>
+        <v>750.3617947509555</v>
       </c>
       <c r="T43" t="n">
-        <v>522.7177807094588</v>
+        <v>685.9791542710636</v>
       </c>
       <c r="U43" t="n">
-        <v>403.2252569647808</v>
+        <v>566.4866305263857</v>
       </c>
       <c r="V43" t="n">
-        <v>310.173462294535</v>
+        <v>473.4348358561399</v>
       </c>
       <c r="W43" t="n">
-        <v>191.7005705832657</v>
+        <v>354.9619441448706</v>
       </c>
       <c r="X43" t="n">
-        <v>123.7094800402464</v>
+        <v>291.3929898115779</v>
       </c>
       <c r="Y43" t="n">
         <v>69.35783100385503</v>
@@ -7652,16 +7652,16 @@
         <v>483.4013103933597</v>
       </c>
       <c r="L44" t="n">
-        <v>921.0885116993903</v>
+        <v>921.0885116993904</v>
       </c>
       <c r="M44" t="n">
-        <v>1414.249514808303</v>
+        <v>1182.258526621333</v>
       </c>
       <c r="N44" t="n">
-        <v>1894.119550137234</v>
+        <v>1662.128561950264</v>
       </c>
       <c r="O44" t="n">
-        <v>2295.004227664487</v>
+        <v>2063.013239477517</v>
       </c>
       <c r="P44" t="n">
         <v>2373.001577091166</v>
@@ -7725,25 +7725,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J45" t="n">
-        <v>139.5979392287873</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K45" t="n">
-        <v>283.0409589657717</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="L45" t="n">
-        <v>714.972297290079</v>
+        <v>482.5090550269687</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.152311127902</v>
+        <v>1044.689068864791</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.606460120439</v>
+        <v>1635.143217857329</v>
       </c>
       <c r="O45" t="n">
-        <v>2332.248420300316</v>
+        <v>2099.785178037206</v>
       </c>
       <c r="P45" t="n">
-        <v>2332.248420300316</v>
+        <v>2460.022196453338</v>
       </c>
       <c r="Q45" t="n">
         <v>2528.88583513307</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.4949863294879</v>
+        <v>208.8628465484555</v>
       </c>
       <c r="C46" t="n">
-        <v>203.5625265624998</v>
+        <v>206.9303867814674</v>
       </c>
       <c r="D46" t="n">
-        <v>203.5625265624998</v>
+        <v>206.9303867814674</v>
       </c>
       <c r="E46" t="n">
-        <v>51.55351232381864</v>
+        <v>54.92137254278623</v>
       </c>
       <c r="F46" t="n">
         <v>51.55351232381864</v>
@@ -7825,31 +7825,31 @@
         <v>796.2713684181131</v>
       </c>
       <c r="Q46" t="n">
-        <v>796.2713684181131</v>
+        <v>779.5425968947036</v>
       </c>
       <c r="R46" t="n">
-        <v>796.2713684181131</v>
+        <v>779.5425968947036</v>
       </c>
       <c r="S46" t="n">
-        <v>754.7839309606821</v>
+        <v>738.0551594372727</v>
       </c>
       <c r="T46" t="n">
-        <v>670.3046587384132</v>
+        <v>673.6725189573808</v>
       </c>
       <c r="U46" t="n">
-        <v>550.8121349937353</v>
+        <v>554.1799952127029</v>
       </c>
       <c r="V46" t="n">
-        <v>457.7603403234895</v>
+        <v>461.1282005424571</v>
       </c>
       <c r="W46" t="n">
-        <v>339.2874486122202</v>
+        <v>342.6553088311878</v>
       </c>
       <c r="X46" t="n">
-        <v>275.7184942789276</v>
+        <v>279.0863544978951</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.3668452425362</v>
+        <v>224.7347054615038</v>
       </c>
     </row>
   </sheetData>
@@ -8693,16 +8693,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>100.8512947680798</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>568.5510017355793</v>
+        <v>444.3923856452284</v>
       </c>
       <c r="O11" t="n">
-        <v>408.0558859944277</v>
+        <v>90.1062179372729</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99892924947504</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,13 +8775,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3379318042945</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N12" t="n">
         <v>26.72675433092508</v>
       </c>
       <c r="O12" t="n">
-        <v>413.2242068823268</v>
+        <v>323.304790189271</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8927,13 +8927,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>105.7053482790471</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>100.8512947680798</v>
       </c>
       <c r="M14" t="n">
-        <v>370.9586478095022</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>189.0251382107344</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,22 +9003,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947501</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>204.9315885715473</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>595.3379318042945</v>
+        <v>37.55798303881538</v>
       </c>
       <c r="N15" t="n">
-        <v>584.5067030964042</v>
+        <v>485.7098949189827</v>
       </c>
       <c r="O15" t="n">
-        <v>42.68570174674105</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>188.8753933117885</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,16 +9170,16 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>86.22516615794264</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>279.0671347900014</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>105.2187876798481</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99892924947504</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>189.3914681295069</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3379318042945</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N18" t="n">
-        <v>584.5067030964042</v>
+        <v>36.63418080666273</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>50.12582305400775</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>74.47682271038872</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463947</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>105.7053482790471</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>451.062494303462</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
@@ -9413,13 +9413,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>123.4064483538959</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.550641350902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947504</v>
       </c>
       <c r="K21" t="n">
-        <v>159.8080620045208</v>
+        <v>62.33373920177437</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>305.6104122123895</v>
       </c>
       <c r="M21" t="n">
-        <v>595.3379318042945</v>
+        <v>595.3379318042946</v>
       </c>
       <c r="N21" t="n">
         <v>584.5067030964042</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>50.12582305400775</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>74.47682271038872</v>
@@ -9638,7 +9638,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>105.7053482790471</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9650,10 +9650,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415689</v>
+        <v>436.525981296978</v>
       </c>
       <c r="P23" t="n">
-        <v>362.3882213987202</v>
+        <v>105.2187876798481</v>
       </c>
       <c r="Q23" t="n">
         <v>118.550641350902</v>
@@ -9717,19 +9717,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>62.33373920177437</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>45.79816775883299</v>
       </c>
       <c r="M24" t="n">
-        <v>130.3128270829143</v>
+        <v>595.3379318042952</v>
       </c>
       <c r="N24" t="n">
-        <v>584.5067030964037</v>
+        <v>584.5067030964049</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>201.8191225594568</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>104.9616769107789</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>122.6901806823986</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947503</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177436</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>104.9616769107798</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>144.0360537000175</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,7 +10428,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177436</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>122.6901806823986</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>393.6414135284905</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>74.4768227103887</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463947</v>
       </c>
       <c r="K35" t="n">
-        <v>187.0547048405236</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10595,7 +10595,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
-        <v>568.5510017355793</v>
+        <v>455.728531352646</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
@@ -10665,13 +10665,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177436</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>104.9616769107787</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>195.0177621822747</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10823,7 +10823,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>187.0547048405245</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10835,7 +10835,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>260.7059041395793</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947503</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177436</v>
       </c>
       <c r="L39" t="n">
-        <v>45.79816775883299</v>
+        <v>353.0280285379104</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>208.9398492280473</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463947</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>308.6252474135959</v>
+        <v>430.1371085326523</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>122.6901806823981</v>
       </c>
       <c r="O42" t="n">
-        <v>42.68570174674105</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>241.9808814053902</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>350.0332620386924</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>184.0039891209378</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947503</v>
       </c>
       <c r="K45" t="n">
-        <v>207.2256783300415</v>
+        <v>62.33373920177436</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>50.12582305400775</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>144.036053700017</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>276.3462824830168</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>267.3275865275447</v>
+        <v>267.3275865275448</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>308.2415401854275</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.8381768654981</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.31847194087116</v>
       </c>
       <c r="T11" t="n">
-        <v>62.21689554329831</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.5223597343418</v>
+        <v>150.5223597343419</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.8413427655142</v>
       </c>
       <c r="W11" t="n">
-        <v>257.141442243471</v>
+        <v>257.1414422434711</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>288.334965525335</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.3275865275448</v>
       </c>
       <c r="E14" t="n">
         <v>289.0697240974503</v>
       </c>
       <c r="F14" t="n">
-        <v>308.2415401854274</v>
+        <v>145.4122900524869</v>
       </c>
       <c r="G14" t="n">
-        <v>309.6000006915978</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.1414422434711</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>276.4417004762177</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.1465128973602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>134028.4105137783</v>
+      </c>
+      <c r="C2" t="n">
         <v>134028.4105137782</v>
       </c>
-      <c r="C2" t="n">
-        <v>134028.4105137783</v>
-      </c>
       <c r="D2" t="n">
-        <v>134028.4105137783</v>
+        <v>134028.4105137782</v>
       </c>
       <c r="E2" t="n">
+        <v>117125.1896709591</v>
+      </c>
+      <c r="F2" t="n">
         <v>117125.1896709592</v>
-      </c>
-      <c r="F2" t="n">
-        <v>117125.1896709593</v>
       </c>
       <c r="G2" t="n">
         <v>134334.2105864819</v>
       </c>
       <c r="H2" t="n">
-        <v>134334.210586482</v>
+        <v>134334.2105864818</v>
       </c>
       <c r="I2" t="n">
-        <v>134334.2105864819</v>
+        <v>134334.2105864818</v>
       </c>
       <c r="J2" t="n">
         <v>134334.2105864819</v>
       </c>
       <c r="K2" t="n">
-        <v>134334.2105864818</v>
+        <v>134334.2105864819</v>
       </c>
       <c r="L2" t="n">
         <v>134334.2105864818</v>
       </c>
       <c r="M2" t="n">
-        <v>134334.2105864818</v>
+        <v>134334.2105864817</v>
       </c>
       <c r="N2" t="n">
         <v>134334.2105864818</v>
       </c>
       <c r="O2" t="n">
+        <v>134334.2105864818</v>
+      </c>
+      <c r="P2" t="n">
         <v>134334.2105864817</v>
-      </c>
-      <c r="P2" t="n">
-        <v>134334.2105864818</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>362828.5755808615</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>68784.12268014459</v>
+        <v>68784.12268014446</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.511585878688493e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>95920.71466492975</v>
+        <v>95920.7146649296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68784.12268014453</v>
+        <v>68784.12268014449</v>
       </c>
       <c r="M3" t="n">
         <v>129612.700680189</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12630.38819785847</v>
+        <v>12630.38819785863</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,13 +26430,13 @@
         <v>279027.0070681254</v>
       </c>
       <c r="G4" t="n">
-        <v>334921.2684652061</v>
+        <v>334921.268465206</v>
       </c>
       <c r="H4" t="n">
-        <v>334921.2684652061</v>
+        <v>334921.2684652059</v>
       </c>
       <c r="I4" t="n">
-        <v>334921.2684652061</v>
+        <v>334921.268465206</v>
       </c>
       <c r="J4" t="n">
         <v>328644.6441614857</v>
@@ -26448,7 +26448,7 @@
         <v>328644.6441614857</v>
       </c>
       <c r="M4" t="n">
-        <v>330141.7994638876</v>
+        <v>330141.7994638875</v>
       </c>
       <c r="N4" t="n">
         <v>330141.7994638876</v>
@@ -26482,25 +26482,25 @@
         <v>45585.60330960766</v>
       </c>
       <c r="G5" t="n">
-        <v>52813.868821604</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="H5" t="n">
-        <v>52813.868821604</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="I5" t="n">
-        <v>52813.86882160399</v>
+        <v>52813.86882160403</v>
       </c>
       <c r="J5" t="n">
         <v>64940.3442904745</v>
       </c>
       <c r="K5" t="n">
-        <v>64940.34429047452</v>
+        <v>64940.3442904745</v>
       </c>
       <c r="L5" t="n">
-        <v>64940.34429047451</v>
+        <v>64940.3442904745</v>
       </c>
       <c r="M5" t="n">
-        <v>55512.11660807206</v>
+        <v>55512.11660807207</v>
       </c>
       <c r="N5" t="n">
         <v>55512.11660807206</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310281.0939217128</v>
+        <v>-310285.46249418</v>
       </c>
       <c r="C6" t="n">
-        <v>-310281.0939217128</v>
+        <v>-310285.46249418</v>
       </c>
       <c r="D6" t="n">
-        <v>-310281.0939217128</v>
+        <v>-310285.46249418</v>
       </c>
       <c r="E6" t="n">
-        <v>-570315.9962876353</v>
+        <v>-570561.8394435715</v>
       </c>
       <c r="F6" t="n">
-        <v>-207487.4207067738</v>
+        <v>-207733.2638627099</v>
       </c>
       <c r="G6" t="n">
-        <v>-322185.0493804728</v>
+        <v>-322185.0493804726</v>
       </c>
       <c r="H6" t="n">
         <v>-253400.9267003281</v>
       </c>
       <c r="I6" t="n">
-        <v>-253400.9267003282</v>
+        <v>-253400.9267003284</v>
       </c>
       <c r="J6" t="n">
-        <v>-355171.492530408</v>
+        <v>-355171.4925304079</v>
       </c>
       <c r="K6" t="n">
-        <v>-259250.7778654784</v>
+        <v>-259250.7778654783</v>
       </c>
       <c r="L6" t="n">
-        <v>-328034.900545623</v>
+        <v>-328034.9005456229</v>
       </c>
       <c r="M6" t="n">
-        <v>-380932.4061656668</v>
+        <v>-380932.4061656669</v>
       </c>
       <c r="N6" t="n">
         <v>-251319.7054854779</v>
       </c>
       <c r="O6" t="n">
-        <v>-263950.0936833363</v>
+        <v>-263950.0936833365</v>
       </c>
       <c r="P6" t="n">
-        <v>-251319.7054854778</v>
+        <v>-251319.7054854779</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="F2" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="G2" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="H2" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="I2" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="J2" t="n">
         <v>101.7681385975039</v>
@@ -26713,7 +26713,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="L2" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M2" t="n">
         <v>166.0066746736183</v>
@@ -26747,7 +26747,7 @@
         <v>142.9833385739898</v>
       </c>
       <c r="F3" t="n">
-        <v>142.9833385739898</v>
+        <v>142.98333857399</v>
       </c>
       <c r="G3" t="n">
         <v>142.9833385739898</v>
@@ -26762,22 +26762,22 @@
         <v>142.9833385739898</v>
       </c>
       <c r="K3" t="n">
-        <v>142.9833385739897</v>
+        <v>142.9833385739899</v>
       </c>
       <c r="L3" t="n">
-        <v>142.9833385739898</v>
+        <v>142.9833385739899</v>
       </c>
       <c r="M3" t="n">
-        <v>142.9833385739898</v>
+        <v>142.9833385739899</v>
       </c>
       <c r="N3" t="n">
-        <v>142.9833385739898</v>
+        <v>142.9833385739899</v>
       </c>
       <c r="O3" t="n">
-        <v>142.9833385739898</v>
+        <v>142.9833385739899</v>
       </c>
       <c r="P3" t="n">
-        <v>142.9833385739898</v>
+        <v>142.9833385739899</v>
       </c>
     </row>
     <row r="4">
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="F4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="G4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="H4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="I4" t="n">
-        <v>557.7799487654787</v>
+        <v>557.7799487654797</v>
       </c>
       <c r="J4" t="n">
         <v>876.1145043718416</v>
       </c>
       <c r="K4" t="n">
-        <v>876.1145043718418</v>
+        <v>876.1145043718416</v>
       </c>
       <c r="L4" t="n">
-        <v>876.1145043718418</v>
+        <v>876.1145043718416</v>
       </c>
       <c r="M4" t="n">
-        <v>632.2214587832674</v>
+        <v>632.2214587832676</v>
       </c>
       <c r="N4" t="n">
         <v>632.2214587832675</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>85.98015335018073</v>
+        <v>85.98015335018057</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.78798524732318</v>
+        <v>15.78798524732332</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018066</v>
+        <v>85.9801533501806</v>
       </c>
       <c r="M2" t="n">
-        <v>64.2385360761145</v>
+        <v>64.23853607611436</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732309</v>
+        <v>15.78798524732329</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063629</v>
+        <v>318.3345556063618</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.8869031769046</v>
+        <v>313.8869031769052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018073</v>
+        <v>85.98015335018057</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732318</v>
+        <v>15.78798524732332</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="C11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="D11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="E11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="F11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="G11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="H11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="I11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>53.62465884835789</v>
       </c>
       <c r="S11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="T11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="U11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="V11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="W11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="X11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="Y11" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
     </row>
     <row r="12">
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="D12" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.09140601927347</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28226,13 +28226,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>91.15627112472129</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>45.26492886275162</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="C13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="D13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="E13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="F13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="G13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="H13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="I13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="J13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="K13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="L13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="M13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="N13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="O13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975054</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="S13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="T13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="U13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="V13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="W13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="X13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975038</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.62465884835789</v>
+        <v>53.62465884835785</v>
       </c>
       <c r="S14" t="n">
         <v>101.7681385975039</v>
@@ -28406,22 +28406,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>101.7681385975039</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
-        <v>91.15627112472208</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>85.35633488202492</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7681385975026</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O16" t="n">
         <v>101.7681385975039</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="C17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="D17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="E17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="G17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="H17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="I17" t="n">
         <v>148.9287648520407</v>
@@ -28615,22 +28615,22 @@
         <v>172.2582621877896</v>
       </c>
       <c r="T17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="U17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="W17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="X17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="Y17" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>32.83777369077112</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.96820235480737</v>
+        <v>3.943312104233485</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57.1096020058413</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.09140601927347</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="19">
@@ -28725,13 +28725,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.9727123385639</v>
@@ -28743,7 +28743,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J19" t="n">
-        <v>41.22746252636377</v>
+        <v>18.65082107345578</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.56148380817539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.4331932014876</v>
       </c>
       <c r="S19" t="n">
-        <v>185.2842087219558</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="T19" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="U19" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V19" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="X19" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="C20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="D20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="E20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="G20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="H20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="I20" t="n">
         <v>148.9287648520407</v>
@@ -28852,22 +28852,22 @@
         <v>172.2582621877896</v>
       </c>
       <c r="T20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="U20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="W20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="X20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="21">
@@ -28886,19 +28886,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.96820235480737</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>57.1096020058413</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>8.681141807311775</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>143.3348822333355</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28974,7 +28974,7 @@
         <v>166.9727123385639</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4864973730212</v>
+        <v>2.066565722812953</v>
       </c>
       <c r="I22" t="n">
         <v>135.0070978221555</v>
@@ -29007,25 +29007,25 @@
         <v>136.4331932014876</v>
       </c>
       <c r="S22" t="n">
-        <v>187.7482919476847</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="U22" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="X22" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.8172843937696</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="C23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="D23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="E23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="G23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="H23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="I23" t="n">
         <v>148.9287648520407</v>
@@ -29089,22 +29089,22 @@
         <v>172.2582621877896</v>
       </c>
       <c r="T23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="U23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="W23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="X23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="Y23" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="24">
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>95.72340169711228</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H24" t="n">
         <v>95.96820235480737</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.09140601927347</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>8.681141807309501</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J25" t="n">
-        <v>41.22746252636377</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>16.56148380817539</v>
       </c>
       <c r="R25" t="n">
-        <v>136.4331932014876</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.32836029747511</v>
+        <v>24.24072407764316</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="U25" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="V25" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="W25" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="X25" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.7482919476847</v>
+        <v>187.7482919476845</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K26" t="n">
         <v>101.7681385975039</v>
@@ -29314,10 +29314,10 @@
         <v>101.7681385975039</v>
       </c>
       <c r="P26" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.63127504991235</v>
+        <v>72.63127504991189</v>
       </c>
       <c r="R26" t="n">
         <v>101.7681385975039</v>
@@ -29460,13 +29460,13 @@
         <v>101.7681385975039</v>
       </c>
       <c r="L28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975029</v>
       </c>
       <c r="M28" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="N28" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O28" t="n">
         <v>101.7681385975039</v>
@@ -29545,19 +29545,19 @@
         <v>101.7681385975039</v>
       </c>
       <c r="N29" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991201</v>
       </c>
       <c r="O29" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="P29" t="n">
-        <v>19.00661620155512</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="R29" t="n">
-        <v>53.62465884835792</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S29" t="n">
         <v>101.7681385975039</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O32" t="n">
-        <v>72.63127504991365</v>
+        <v>72.63127504991178</v>
       </c>
       <c r="P32" t="n">
-        <v>101.7681385975038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N34" t="n">
-        <v>101.7681385975061</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.7681385975038</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.62465884835789</v>
+        <v>53.62465884835788</v>
       </c>
       <c r="S35" t="n">
         <v>166.0066746736183</v>
@@ -30150,13 +30150,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>21.33179710141019</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>161.6287598259882</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H37" t="n">
         <v>155.4864973730212</v>
@@ -30165,7 +30165,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J37" t="n">
-        <v>41.22746252636377</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>166.0066746736183</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U37" t="n">
         <v>166.0066746736183</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.62465884835789</v>
+        <v>53.62465884835788</v>
       </c>
       <c r="S38" t="n">
         <v>166.0066746736183</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>115.1114323972014</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30399,10 +30399,10 @@
         <v>155.4864973730212</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>135.0070978221555</v>
       </c>
       <c r="J40" t="n">
-        <v>41.22746252636377</v>
+        <v>37.89328090958558</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.56148380817539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>136.4331932014876</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.62465884835789</v>
+        <v>53.62465884835788</v>
       </c>
       <c r="S41" t="n">
         <v>166.0066746736182</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.56148380817539</v>
+        <v>12.18356896054599</v>
       </c>
       <c r="R43" t="n">
         <v>136.4331932014876</v>
@@ -30669,7 +30669,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U43" t="n">
         <v>166.0066746736182</v>
@@ -30681,10 +30681,10 @@
         <v>166.0066746736182</v>
       </c>
       <c r="X43" t="n">
-        <v>161.6287598259889</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.62465884835789</v>
+        <v>53.62465884835788</v>
       </c>
       <c r="S44" t="n">
         <v>166.0066746736182</v>
@@ -30864,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>147.6216668077028</v>
       </c>
       <c r="G46" t="n">
         <v>166.0066746736182</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.56148380817539</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>136.4331932014876</v>
@@ -30906,7 +30906,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="T46" t="n">
-        <v>146.1110092486649</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="U46" t="n">
         <v>166.0066746736182</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.57480739125222</v>
+        <v>0.5748073912522205</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8867461956618</v>
+        <v>5.886746195661805</v>
       </c>
       <c r="I14" t="n">
-        <v>22.16026195125123</v>
+        <v>22.16026195125125</v>
       </c>
       <c r="J14" t="n">
-        <v>48.78605882329315</v>
+        <v>48.7860588232932</v>
       </c>
       <c r="K14" t="n">
-        <v>73.11765569499964</v>
+        <v>73.1176556949997</v>
       </c>
       <c r="L14" t="n">
-        <v>90.70891739503479</v>
+        <v>90.70891739503486</v>
       </c>
       <c r="M14" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N14" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O14" t="n">
-        <v>96.84857884284756</v>
+        <v>96.84857884284764</v>
       </c>
       <c r="P14" t="n">
-        <v>82.65802137130837</v>
+        <v>82.65802137130844</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.07273167208822</v>
+        <v>62.07273167208827</v>
       </c>
       <c r="R14" t="n">
-        <v>36.10724479074729</v>
+        <v>36.10724479074733</v>
       </c>
       <c r="S14" t="n">
-        <v>13.09842342815998</v>
+        <v>13.09842342815999</v>
       </c>
       <c r="T14" t="n">
-        <v>2.516219355206594</v>
+        <v>2.516219355206597</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0459845913001776</v>
+        <v>0.04598459130017763</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3075490678761291</v>
+        <v>0.3075490678761293</v>
       </c>
       <c r="H15" t="n">
-        <v>2.970276523961563</v>
+        <v>2.970276523961565</v>
       </c>
       <c r="I15" t="n">
         <v>10.58886045099831</v>
       </c>
       <c r="J15" t="n">
-        <v>29.05664241719166</v>
+        <v>29.05664241719168</v>
       </c>
       <c r="K15" t="n">
-        <v>49.6624299648923</v>
+        <v>49.66242996489235</v>
       </c>
       <c r="L15" t="n">
-        <v>66.77726581231479</v>
+        <v>66.77726581231484</v>
       </c>
       <c r="M15" t="n">
-        <v>77.92591952282446</v>
+        <v>77.92591952282451</v>
       </c>
       <c r="N15" t="n">
-        <v>79.98838673678324</v>
+        <v>79.98838673678331</v>
       </c>
       <c r="O15" t="n">
-        <v>73.17374686437006</v>
+        <v>73.17374686437012</v>
       </c>
       <c r="P15" t="n">
-        <v>58.72838297013557</v>
+        <v>58.72838297013561</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.25836873450378</v>
+        <v>39.25836873450381</v>
       </c>
       <c r="R15" t="n">
-        <v>19.0950201967302</v>
+        <v>19.09502019673021</v>
       </c>
       <c r="S15" t="n">
-        <v>5.712589045857043</v>
+        <v>5.712589045857047</v>
       </c>
       <c r="T15" t="n">
-        <v>1.239638567448081</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02023349130764008</v>
+        <v>0.0202334913076401</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2578388072645718</v>
+        <v>0.257838807264572</v>
       </c>
       <c r="H16" t="n">
-        <v>2.29242139549774</v>
+        <v>2.292421395497742</v>
       </c>
       <c r="I16" t="n">
-        <v>7.753916131192762</v>
+        <v>7.753916131192768</v>
       </c>
       <c r="J16" t="n">
-        <v>18.22920367360523</v>
+        <v>18.22920367360524</v>
       </c>
       <c r="K16" t="n">
-        <v>29.95618142582934</v>
+        <v>29.95618142582936</v>
       </c>
       <c r="L16" t="n">
-        <v>38.33359867277098</v>
+        <v>38.33359867277101</v>
       </c>
       <c r="M16" t="n">
-        <v>40.4174050333001</v>
+        <v>40.41740503330013</v>
       </c>
       <c r="N16" t="n">
-        <v>39.45636947895036</v>
+        <v>39.4563694789504</v>
       </c>
       <c r="O16" t="n">
-        <v>36.44434341226876</v>
+        <v>36.44434341226879</v>
       </c>
       <c r="P16" t="n">
-        <v>31.18443174407147</v>
+        <v>31.1844317440715</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.59048412467246</v>
+        <v>21.59048412467248</v>
       </c>
       <c r="R16" t="n">
         <v>11.59337037027793</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4934272138744</v>
+        <v>4.493427213874403</v>
       </c>
       <c r="T16" t="n">
         <v>1.101674903766807</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01406393494170393</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5748073912522196</v>
+        <v>0.5748073912522201</v>
       </c>
       <c r="H29" t="n">
-        <v>5.886746195661795</v>
+        <v>5.886746195661801</v>
       </c>
       <c r="I29" t="n">
-        <v>22.16026195125121</v>
+        <v>22.16026195125124</v>
       </c>
       <c r="J29" t="n">
-        <v>48.78605882329312</v>
+        <v>48.78605882329316</v>
       </c>
       <c r="K29" t="n">
-        <v>73.11765569499958</v>
+        <v>73.11765569499966</v>
       </c>
       <c r="L29" t="n">
-        <v>90.70891739503472</v>
+        <v>90.7089173950348</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N29" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O29" t="n">
-        <v>96.84857884284749</v>
+        <v>96.84857884284759</v>
       </c>
       <c r="P29" t="n">
-        <v>82.65802137130831</v>
+        <v>82.65802137130838</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.07273167208817</v>
+        <v>62.07273167208823</v>
       </c>
       <c r="R29" t="n">
-        <v>36.10724479074727</v>
+        <v>36.1072447907473</v>
       </c>
       <c r="S29" t="n">
-        <v>13.09842342815997</v>
+        <v>13.09842342815998</v>
       </c>
       <c r="T29" t="n">
-        <v>2.516219355206593</v>
+        <v>2.516219355206595</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04598459130017755</v>
+        <v>0.0459845913001776</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3075490678761288</v>
+        <v>0.3075490678761292</v>
       </c>
       <c r="H30" t="n">
-        <v>2.970276523961561</v>
+        <v>2.970276523961564</v>
       </c>
       <c r="I30" t="n">
-        <v>10.5888604509983</v>
+        <v>10.58886045099831</v>
       </c>
       <c r="J30" t="n">
-        <v>29.05664241719164</v>
+        <v>29.05664241719166</v>
       </c>
       <c r="K30" t="n">
-        <v>49.66242996489227</v>
+        <v>49.66242996489232</v>
       </c>
       <c r="L30" t="n">
-        <v>66.77726581231474</v>
+        <v>66.77726581231481</v>
       </c>
       <c r="M30" t="n">
-        <v>77.92591952282439</v>
+        <v>77.92591952282447</v>
       </c>
       <c r="N30" t="n">
-        <v>79.98838673678318</v>
+        <v>79.98838673678326</v>
       </c>
       <c r="O30" t="n">
-        <v>73.17374686437</v>
+        <v>73.17374686437007</v>
       </c>
       <c r="P30" t="n">
-        <v>58.72838297013552</v>
+        <v>58.72838297013558</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.25836873450375</v>
+        <v>39.25836873450379</v>
       </c>
       <c r="R30" t="n">
-        <v>19.09502019673018</v>
+        <v>19.0950201967302</v>
       </c>
       <c r="S30" t="n">
-        <v>5.712589045857039</v>
+        <v>5.712589045857045</v>
       </c>
       <c r="T30" t="n">
-        <v>1.23963856744808</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02023349130764007</v>
+        <v>0.02023349130764008</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2578388072645716</v>
+        <v>0.2578388072645719</v>
       </c>
       <c r="H31" t="n">
-        <v>2.292421395497738</v>
+        <v>2.292421395497741</v>
       </c>
       <c r="I31" t="n">
-        <v>7.753916131192756</v>
+        <v>7.753916131192764</v>
       </c>
       <c r="J31" t="n">
-        <v>18.22920367360521</v>
+        <v>18.22920367360523</v>
       </c>
       <c r="K31" t="n">
-        <v>29.95618142582931</v>
+        <v>29.95618142582934</v>
       </c>
       <c r="L31" t="n">
-        <v>38.33359867277095</v>
+        <v>38.33359867277099</v>
       </c>
       <c r="M31" t="n">
-        <v>40.41740503330007</v>
+        <v>40.41740503330011</v>
       </c>
       <c r="N31" t="n">
-        <v>39.45636947895034</v>
+        <v>39.45636947895037</v>
       </c>
       <c r="O31" t="n">
-        <v>36.44434341226874</v>
+        <v>36.44434341226877</v>
       </c>
       <c r="P31" t="n">
-        <v>31.18443174407145</v>
+        <v>31.18443174407148</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.59048412467245</v>
+        <v>21.59048412467247</v>
       </c>
       <c r="R31" t="n">
-        <v>11.59337037027792</v>
+        <v>11.59337037027793</v>
       </c>
       <c r="S31" t="n">
-        <v>4.493427213874396</v>
+        <v>4.4934272138744</v>
       </c>
       <c r="T31" t="n">
-        <v>1.101674903766806</v>
+        <v>1.101674903766807</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01406393494170392</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.57480739125222</v>
+        <v>0.5748073912522201</v>
       </c>
       <c r="H32" t="n">
-        <v>5.8867461956618</v>
+        <v>5.886746195661801</v>
       </c>
       <c r="I32" t="n">
-        <v>22.16026195125123</v>
+        <v>22.16026195125124</v>
       </c>
       <c r="J32" t="n">
-        <v>48.78605882329315</v>
+        <v>48.78605882329316</v>
       </c>
       <c r="K32" t="n">
-        <v>73.11765569499964</v>
+        <v>73.11765569499966</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70891739503479</v>
+        <v>90.7089173950348</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N32" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O32" t="n">
-        <v>96.84857884284756</v>
+        <v>96.84857884284759</v>
       </c>
       <c r="P32" t="n">
-        <v>82.65802137130837</v>
+        <v>82.65802137130838</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.07273167208822</v>
+        <v>62.07273167208823</v>
       </c>
       <c r="R32" t="n">
-        <v>36.10724479074729</v>
+        <v>36.1072447907473</v>
       </c>
       <c r="S32" t="n">
         <v>13.09842342815998</v>
       </c>
       <c r="T32" t="n">
-        <v>2.516219355206594</v>
+        <v>2.516219355206595</v>
       </c>
       <c r="U32" t="n">
         <v>0.0459845913001776</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3075490678761291</v>
+        <v>0.3075490678761292</v>
       </c>
       <c r="H33" t="n">
-        <v>2.970276523961563</v>
+        <v>2.970276523961564</v>
       </c>
       <c r="I33" t="n">
         <v>10.58886045099831</v>
@@ -33500,34 +33500,34 @@
         <v>29.05664241719166</v>
       </c>
       <c r="K33" t="n">
-        <v>49.6624299648923</v>
+        <v>49.66242996489232</v>
       </c>
       <c r="L33" t="n">
-        <v>66.77726581231479</v>
+        <v>66.77726581231481</v>
       </c>
       <c r="M33" t="n">
-        <v>77.92591952282446</v>
+        <v>77.92591952282447</v>
       </c>
       <c r="N33" t="n">
-        <v>79.98838673678324</v>
+        <v>79.98838673678326</v>
       </c>
       <c r="O33" t="n">
-        <v>73.17374686437006</v>
+        <v>73.17374686437007</v>
       </c>
       <c r="P33" t="n">
-        <v>58.72838297013557</v>
+        <v>58.72838297013558</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.25836873450378</v>
+        <v>39.25836873450379</v>
       </c>
       <c r="R33" t="n">
         <v>19.0950201967302</v>
       </c>
       <c r="S33" t="n">
-        <v>5.712589045857043</v>
+        <v>5.712589045857045</v>
       </c>
       <c r="T33" t="n">
-        <v>1.239638567448081</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U33" t="n">
         <v>0.02023349130764008</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2578388072645718</v>
+        <v>0.2578388072645719</v>
       </c>
       <c r="H34" t="n">
-        <v>2.29242139549774</v>
+        <v>2.292421395497741</v>
       </c>
       <c r="I34" t="n">
-        <v>7.753916131192762</v>
+        <v>7.753916131192764</v>
       </c>
       <c r="J34" t="n">
         <v>18.22920367360523</v>
@@ -33582,22 +33582,22 @@
         <v>29.95618142582934</v>
       </c>
       <c r="L34" t="n">
-        <v>38.33359867277098</v>
+        <v>38.33359867277099</v>
       </c>
       <c r="M34" t="n">
-        <v>40.4174050333001</v>
+        <v>40.41740503330011</v>
       </c>
       <c r="N34" t="n">
-        <v>39.45636947895036</v>
+        <v>39.45636947895037</v>
       </c>
       <c r="O34" t="n">
-        <v>36.44434341226876</v>
+        <v>36.44434341226877</v>
       </c>
       <c r="P34" t="n">
-        <v>31.18443174407147</v>
+        <v>31.18443174407148</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.59048412467246</v>
+        <v>21.59048412467247</v>
       </c>
       <c r="R34" t="n">
         <v>11.59337037027793</v>
@@ -33609,7 +33609,7 @@
         <v>1.101674903766807</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01406393494170393</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.57480739125222</v>
+        <v>0.5748073912522201</v>
       </c>
       <c r="H35" t="n">
-        <v>5.8867461956618</v>
+        <v>5.886746195661801</v>
       </c>
       <c r="I35" t="n">
-        <v>22.16026195125123</v>
+        <v>22.16026195125124</v>
       </c>
       <c r="J35" t="n">
-        <v>48.78605882329315</v>
+        <v>48.78605882329316</v>
       </c>
       <c r="K35" t="n">
-        <v>73.11765569499964</v>
+        <v>73.11765569499966</v>
       </c>
       <c r="L35" t="n">
-        <v>90.70891739503479</v>
+        <v>90.7089173950348</v>
       </c>
       <c r="M35" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N35" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O35" t="n">
-        <v>96.84857884284756</v>
+        <v>96.84857884284759</v>
       </c>
       <c r="P35" t="n">
-        <v>82.65802137130837</v>
+        <v>82.65802137130838</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.07273167208822</v>
+        <v>62.07273167208823</v>
       </c>
       <c r="R35" t="n">
-        <v>36.10724479074729</v>
+        <v>36.1072447907473</v>
       </c>
       <c r="S35" t="n">
         <v>13.09842342815998</v>
       </c>
       <c r="T35" t="n">
-        <v>2.516219355206594</v>
+        <v>2.516219355206595</v>
       </c>
       <c r="U35" t="n">
         <v>0.0459845913001776</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3075490678761291</v>
+        <v>0.3075490678761292</v>
       </c>
       <c r="H36" t="n">
-        <v>2.970276523961563</v>
+        <v>2.970276523961564</v>
       </c>
       <c r="I36" t="n">
         <v>10.58886045099831</v>
@@ -33737,34 +33737,34 @@
         <v>29.05664241719166</v>
       </c>
       <c r="K36" t="n">
-        <v>49.6624299648923</v>
+        <v>49.66242996489232</v>
       </c>
       <c r="L36" t="n">
-        <v>66.77726581231479</v>
+        <v>66.77726581231481</v>
       </c>
       <c r="M36" t="n">
-        <v>77.92591952282446</v>
+        <v>77.92591952282447</v>
       </c>
       <c r="N36" t="n">
-        <v>79.98838673678324</v>
+        <v>79.98838673678326</v>
       </c>
       <c r="O36" t="n">
-        <v>73.17374686437006</v>
+        <v>73.17374686437007</v>
       </c>
       <c r="P36" t="n">
-        <v>58.72838297013557</v>
+        <v>58.72838297013558</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.25836873450378</v>
+        <v>39.25836873450379</v>
       </c>
       <c r="R36" t="n">
         <v>19.0950201967302</v>
       </c>
       <c r="S36" t="n">
-        <v>5.712589045857043</v>
+        <v>5.712589045857045</v>
       </c>
       <c r="T36" t="n">
-        <v>1.239638567448081</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U36" t="n">
         <v>0.02023349130764008</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2578388072645718</v>
+        <v>0.2578388072645719</v>
       </c>
       <c r="H37" t="n">
-        <v>2.29242139549774</v>
+        <v>2.292421395497741</v>
       </c>
       <c r="I37" t="n">
-        <v>7.753916131192762</v>
+        <v>7.753916131192764</v>
       </c>
       <c r="J37" t="n">
         <v>18.22920367360523</v>
@@ -33819,22 +33819,22 @@
         <v>29.95618142582934</v>
       </c>
       <c r="L37" t="n">
-        <v>38.33359867277098</v>
+        <v>38.33359867277099</v>
       </c>
       <c r="M37" t="n">
-        <v>40.4174050333001</v>
+        <v>40.41740503330011</v>
       </c>
       <c r="N37" t="n">
-        <v>39.45636947895036</v>
+        <v>39.45636947895037</v>
       </c>
       <c r="O37" t="n">
-        <v>36.44434341226876</v>
+        <v>36.44434341226877</v>
       </c>
       <c r="P37" t="n">
-        <v>31.18443174407147</v>
+        <v>31.18443174407148</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.59048412467246</v>
+        <v>21.59048412467247</v>
       </c>
       <c r="R37" t="n">
         <v>11.59337037027793</v>
@@ -33846,7 +33846,7 @@
         <v>1.101674903766807</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01406393494170393</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.57480739125222</v>
+        <v>0.5748073912522201</v>
       </c>
       <c r="H38" t="n">
-        <v>5.8867461956618</v>
+        <v>5.886746195661801</v>
       </c>
       <c r="I38" t="n">
-        <v>22.16026195125123</v>
+        <v>22.16026195125124</v>
       </c>
       <c r="J38" t="n">
-        <v>48.78605882329315</v>
+        <v>48.78605882329316</v>
       </c>
       <c r="K38" t="n">
-        <v>73.11765569499964</v>
+        <v>73.11765569499966</v>
       </c>
       <c r="L38" t="n">
-        <v>90.70891739503479</v>
+        <v>90.7089173950348</v>
       </c>
       <c r="M38" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N38" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O38" t="n">
-        <v>96.84857884284756</v>
+        <v>96.84857884284759</v>
       </c>
       <c r="P38" t="n">
-        <v>82.65802137130837</v>
+        <v>82.65802137130838</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.07273167208822</v>
+        <v>62.07273167208823</v>
       </c>
       <c r="R38" t="n">
-        <v>36.10724479074729</v>
+        <v>36.1072447907473</v>
       </c>
       <c r="S38" t="n">
         <v>13.09842342815998</v>
       </c>
       <c r="T38" t="n">
-        <v>2.516219355206594</v>
+        <v>2.516219355206595</v>
       </c>
       <c r="U38" t="n">
         <v>0.0459845913001776</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3075490678761291</v>
+        <v>0.3075490678761292</v>
       </c>
       <c r="H39" t="n">
-        <v>2.970276523961563</v>
+        <v>2.970276523961564</v>
       </c>
       <c r="I39" t="n">
         <v>10.58886045099831</v>
@@ -33974,34 +33974,34 @@
         <v>29.05664241719166</v>
       </c>
       <c r="K39" t="n">
-        <v>49.6624299648923</v>
+        <v>49.66242996489232</v>
       </c>
       <c r="L39" t="n">
-        <v>66.77726581231479</v>
+        <v>66.77726581231481</v>
       </c>
       <c r="M39" t="n">
-        <v>77.92591952282446</v>
+        <v>77.92591952282447</v>
       </c>
       <c r="N39" t="n">
-        <v>79.98838673678324</v>
+        <v>79.98838673678326</v>
       </c>
       <c r="O39" t="n">
-        <v>73.17374686437006</v>
+        <v>73.17374686437007</v>
       </c>
       <c r="P39" t="n">
-        <v>58.72838297013557</v>
+        <v>58.72838297013558</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.25836873450378</v>
+        <v>39.25836873450379</v>
       </c>
       <c r="R39" t="n">
         <v>19.0950201967302</v>
       </c>
       <c r="S39" t="n">
-        <v>5.712589045857043</v>
+        <v>5.712589045857045</v>
       </c>
       <c r="T39" t="n">
-        <v>1.239638567448081</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U39" t="n">
         <v>0.02023349130764008</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2578388072645718</v>
+        <v>0.2578388072645719</v>
       </c>
       <c r="H40" t="n">
-        <v>2.29242139549774</v>
+        <v>2.292421395497741</v>
       </c>
       <c r="I40" t="n">
-        <v>7.753916131192762</v>
+        <v>7.753916131192764</v>
       </c>
       <c r="J40" t="n">
         <v>18.22920367360523</v>
@@ -34056,22 +34056,22 @@
         <v>29.95618142582934</v>
       </c>
       <c r="L40" t="n">
-        <v>38.33359867277098</v>
+        <v>38.33359867277099</v>
       </c>
       <c r="M40" t="n">
-        <v>40.4174050333001</v>
+        <v>40.41740503330011</v>
       </c>
       <c r="N40" t="n">
-        <v>39.45636947895036</v>
+        <v>39.45636947895037</v>
       </c>
       <c r="O40" t="n">
-        <v>36.44434341226876</v>
+        <v>36.44434341226877</v>
       </c>
       <c r="P40" t="n">
-        <v>31.18443174407147</v>
+        <v>31.18443174407148</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.59048412467246</v>
+        <v>21.59048412467247</v>
       </c>
       <c r="R40" t="n">
         <v>11.59337037027793</v>
@@ -34083,7 +34083,7 @@
         <v>1.101674903766807</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01406393494170393</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.57480739125222</v>
+        <v>0.5748073912522201</v>
       </c>
       <c r="H41" t="n">
-        <v>5.8867461956618</v>
+        <v>5.886746195661801</v>
       </c>
       <c r="I41" t="n">
-        <v>22.16026195125123</v>
+        <v>22.16026195125124</v>
       </c>
       <c r="J41" t="n">
-        <v>48.78605882329315</v>
+        <v>48.78605882329316</v>
       </c>
       <c r="K41" t="n">
-        <v>73.11765569499964</v>
+        <v>73.11765569499966</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70891739503479</v>
+        <v>90.7089173950348</v>
       </c>
       <c r="M41" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N41" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O41" t="n">
-        <v>96.84857884284756</v>
+        <v>96.84857884284759</v>
       </c>
       <c r="P41" t="n">
-        <v>82.65802137130837</v>
+        <v>82.65802137130838</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.07273167208822</v>
+        <v>62.07273167208823</v>
       </c>
       <c r="R41" t="n">
-        <v>36.10724479074729</v>
+        <v>36.1072447907473</v>
       </c>
       <c r="S41" t="n">
         <v>13.09842342815998</v>
       </c>
       <c r="T41" t="n">
-        <v>2.516219355206594</v>
+        <v>2.516219355206595</v>
       </c>
       <c r="U41" t="n">
         <v>0.0459845913001776</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3075490678761291</v>
+        <v>0.3075490678761292</v>
       </c>
       <c r="H42" t="n">
-        <v>2.970276523961563</v>
+        <v>2.970276523961564</v>
       </c>
       <c r="I42" t="n">
         <v>10.58886045099831</v>
@@ -34211,34 +34211,34 @@
         <v>29.05664241719166</v>
       </c>
       <c r="K42" t="n">
-        <v>49.6624299648923</v>
+        <v>49.66242996489232</v>
       </c>
       <c r="L42" t="n">
-        <v>66.77726581231479</v>
+        <v>66.77726581231481</v>
       </c>
       <c r="M42" t="n">
-        <v>77.92591952282446</v>
+        <v>77.92591952282447</v>
       </c>
       <c r="N42" t="n">
-        <v>79.98838673678324</v>
+        <v>79.98838673678326</v>
       </c>
       <c r="O42" t="n">
-        <v>73.17374686437006</v>
+        <v>73.17374686437007</v>
       </c>
       <c r="P42" t="n">
-        <v>58.72838297013557</v>
+        <v>58.72838297013558</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.25836873450378</v>
+        <v>39.25836873450379</v>
       </c>
       <c r="R42" t="n">
         <v>19.0950201967302</v>
       </c>
       <c r="S42" t="n">
-        <v>5.712589045857043</v>
+        <v>5.712589045857045</v>
       </c>
       <c r="T42" t="n">
-        <v>1.239638567448081</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U42" t="n">
         <v>0.02023349130764008</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2578388072645718</v>
+        <v>0.2578388072645719</v>
       </c>
       <c r="H43" t="n">
-        <v>2.29242139549774</v>
+        <v>2.292421395497741</v>
       </c>
       <c r="I43" t="n">
-        <v>7.753916131192762</v>
+        <v>7.753916131192764</v>
       </c>
       <c r="J43" t="n">
         <v>18.22920367360523</v>
@@ -34293,22 +34293,22 @@
         <v>29.95618142582934</v>
       </c>
       <c r="L43" t="n">
-        <v>38.33359867277098</v>
+        <v>38.33359867277099</v>
       </c>
       <c r="M43" t="n">
-        <v>40.4174050333001</v>
+        <v>40.41740503330011</v>
       </c>
       <c r="N43" t="n">
-        <v>39.45636947895036</v>
+        <v>39.45636947895037</v>
       </c>
       <c r="O43" t="n">
-        <v>36.44434341226876</v>
+        <v>36.44434341226877</v>
       </c>
       <c r="P43" t="n">
-        <v>31.18443174407147</v>
+        <v>31.18443174407148</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.59048412467246</v>
+        <v>21.59048412467247</v>
       </c>
       <c r="R43" t="n">
         <v>11.59337037027793</v>
@@ -34320,7 +34320,7 @@
         <v>1.101674903766807</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01406393494170393</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.57480739125222</v>
+        <v>0.5748073912522201</v>
       </c>
       <c r="H44" t="n">
-        <v>5.8867461956618</v>
+        <v>5.886746195661801</v>
       </c>
       <c r="I44" t="n">
-        <v>22.16026195125123</v>
+        <v>22.16026195125124</v>
       </c>
       <c r="J44" t="n">
-        <v>48.78605882329315</v>
+        <v>48.78605882329316</v>
       </c>
       <c r="K44" t="n">
-        <v>73.11765569499964</v>
+        <v>73.11765569499966</v>
       </c>
       <c r="L44" t="n">
-        <v>90.70891739503479</v>
+        <v>90.7089173950348</v>
       </c>
       <c r="M44" t="n">
-        <v>100.9311483392164</v>
+        <v>100.9311483392165</v>
       </c>
       <c r="N44" t="n">
-        <v>102.5643198396118</v>
+        <v>102.5643198396119</v>
       </c>
       <c r="O44" t="n">
-        <v>96.84857884284756</v>
+        <v>96.84857884284759</v>
       </c>
       <c r="P44" t="n">
-        <v>82.65802137130837</v>
+        <v>82.65802137130838</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.07273167208822</v>
+        <v>62.07273167208823</v>
       </c>
       <c r="R44" t="n">
-        <v>36.10724479074729</v>
+        <v>36.1072447907473</v>
       </c>
       <c r="S44" t="n">
         <v>13.09842342815998</v>
       </c>
       <c r="T44" t="n">
-        <v>2.516219355206594</v>
+        <v>2.516219355206595</v>
       </c>
       <c r="U44" t="n">
         <v>0.0459845913001776</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3075490678761291</v>
+        <v>0.3075490678761292</v>
       </c>
       <c r="H45" t="n">
-        <v>2.970276523961563</v>
+        <v>2.970276523961564</v>
       </c>
       <c r="I45" t="n">
         <v>10.58886045099831</v>
@@ -34448,34 +34448,34 @@
         <v>29.05664241719166</v>
       </c>
       <c r="K45" t="n">
-        <v>49.6624299648923</v>
+        <v>49.66242996489232</v>
       </c>
       <c r="L45" t="n">
-        <v>66.77726581231479</v>
+        <v>66.77726581231481</v>
       </c>
       <c r="M45" t="n">
-        <v>77.92591952282446</v>
+        <v>77.92591952282447</v>
       </c>
       <c r="N45" t="n">
-        <v>79.98838673678324</v>
+        <v>79.98838673678326</v>
       </c>
       <c r="O45" t="n">
-        <v>73.17374686437006</v>
+        <v>73.17374686437007</v>
       </c>
       <c r="P45" t="n">
-        <v>58.72838297013557</v>
+        <v>58.72838297013558</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.25836873450378</v>
+        <v>39.25836873450379</v>
       </c>
       <c r="R45" t="n">
         <v>19.0950201967302</v>
       </c>
       <c r="S45" t="n">
-        <v>5.712589045857043</v>
+        <v>5.712589045857045</v>
       </c>
       <c r="T45" t="n">
-        <v>1.239638567448081</v>
+        <v>1.239638567448082</v>
       </c>
       <c r="U45" t="n">
         <v>0.02023349130764008</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2578388072645718</v>
+        <v>0.2578388072645719</v>
       </c>
       <c r="H46" t="n">
-        <v>2.29242139549774</v>
+        <v>2.292421395497741</v>
       </c>
       <c r="I46" t="n">
-        <v>7.753916131192762</v>
+        <v>7.753916131192764</v>
       </c>
       <c r="J46" t="n">
         <v>18.22920367360523</v>
@@ -34530,22 +34530,22 @@
         <v>29.95618142582934</v>
       </c>
       <c r="L46" t="n">
-        <v>38.33359867277098</v>
+        <v>38.33359867277099</v>
       </c>
       <c r="M46" t="n">
-        <v>40.4174050333001</v>
+        <v>40.41740503330011</v>
       </c>
       <c r="N46" t="n">
-        <v>39.45636947895036</v>
+        <v>39.45636947895037</v>
       </c>
       <c r="O46" t="n">
-        <v>36.44434341226876</v>
+        <v>36.44434341226877</v>
       </c>
       <c r="P46" t="n">
-        <v>31.18443174407147</v>
+        <v>31.18443174407148</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.59048412467246</v>
+        <v>21.59048412467247</v>
       </c>
       <c r="R46" t="n">
         <v>11.59337037027793</v>
@@ -34557,7 +34557,7 @@
         <v>1.101674903766807</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01406393494170393</v>
+        <v>0.01406393494170394</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>315.6836880634671</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>442.1082841475057</v>
       </c>
       <c r="M11" t="n">
         <v>498.1424273827396</v>
       </c>
       <c r="N11" t="n">
-        <v>484.717207402961</v>
+        <v>360.5585913126101</v>
       </c>
       <c r="O11" t="n">
-        <v>317.9496680571548</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>313.1195329430793</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>89.91941669305645</v>
       </c>
       <c r="K12" t="n">
         <v>281.4710689145778</v>
@@ -35495,13 +35495,13 @@
         <v>436.2942811356639</v>
       </c>
       <c r="M12" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>370.5385051355858</v>
+        <v>280.6190884425299</v>
       </c>
       <c r="P12" t="n">
         <v>363.8757761779106</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.54067607114018</v>
+        <v>60.54067607114008</v>
       </c>
       <c r="K13" t="n">
-        <v>165.6679440078216</v>
+        <v>165.6679440078215</v>
       </c>
       <c r="L13" t="n">
-        <v>241.7250497957896</v>
+        <v>241.7250497957895</v>
       </c>
       <c r="M13" t="n">
-        <v>261.3709033556543</v>
+        <v>261.3709033556541</v>
       </c>
       <c r="N13" t="n">
-        <v>260.8430350962527</v>
+        <v>260.8430350962525</v>
       </c>
       <c r="O13" t="n">
-        <v>237.6707107932976</v>
+        <v>237.6707107932975</v>
       </c>
       <c r="P13" t="n">
-        <v>196.5570993598964</v>
+        <v>196.5570993598963</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.20665478932855</v>
+        <v>85.20665478932996</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5118611190564</v>
+        <v>121.5118611190565</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>315.6836880634671</v>
       </c>
       <c r="L14" t="n">
-        <v>442.1082841475057</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>284.7334816515595</v>
+        <v>498.1424273827397</v>
       </c>
       <c r="N14" t="n">
-        <v>484.717207402961</v>
+        <v>484.7172074029612</v>
       </c>
       <c r="O14" t="n">
-        <v>404.934017704296</v>
+        <v>404.9340177042961</v>
       </c>
       <c r="P14" t="n">
-        <v>313.1195329430793</v>
+        <v>313.1195329430794</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.4588465069741</v>
+        <v>70.47449685983246</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.91941669305645</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>281.4710689145778</v>
+        <v>281.4710689145779</v>
       </c>
       <c r="L15" t="n">
-        <v>159.1334208127143</v>
+        <v>436.294281135664</v>
       </c>
       <c r="M15" t="n">
-        <v>557.779948765479</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>557.779948765479</v>
+        <v>458.9831405880577</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>469.3353133130074</v>
       </c>
       <c r="P15" t="n">
         <v>363.8757761779106</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.6236513462151</v>
+        <v>198.6236513462152</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.54067607114016</v>
+        <v>60.54067607114013</v>
       </c>
       <c r="K16" t="n">
         <v>165.6679440078215</v>
@@ -35814,7 +35814,7 @@
         <v>261.3709033556543</v>
       </c>
       <c r="N16" t="n">
-        <v>260.8430350962514</v>
+        <v>260.8430350962527</v>
       </c>
       <c r="O16" t="n">
         <v>237.6707107932976</v>
@@ -35823,7 +35823,7 @@
         <v>196.5570993598964</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.20665478932855</v>
+        <v>85.20665478932852</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5118611190564</v>
+        <v>90.56165470714902</v>
       </c>
       <c r="K17" t="n">
         <v>315.6836880634671</v>
@@ -35890,16 +35890,16 @@
         <v>442.1082841475057</v>
       </c>
       <c r="M17" t="n">
-        <v>498.1424273827396</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>484.717207402961</v>
       </c>
       <c r="O17" t="n">
-        <v>188.9609168527285</v>
+        <v>404.934017704296</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>313.1195329430793</v>
       </c>
       <c r="Q17" t="n">
         <v>157.4588465069741</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.91941669305645</v>
       </c>
       <c r="K18" t="n">
         <v>281.4710689145778</v>
       </c>
       <c r="L18" t="n">
-        <v>143.5933003706739</v>
+        <v>436.2942811356639</v>
       </c>
       <c r="M18" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="N18" t="n">
-        <v>557.779948765479</v>
+        <v>9.907426475737651</v>
       </c>
       <c r="O18" t="n">
         <v>469.3353133130073</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>363.8757761779106</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.6236513462151</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5118611190564</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>315.6836880634671</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>442.1082841475057</v>
+        <v>350.2111995353821</v>
       </c>
       <c r="M20" t="n">
         <v>498.1424273827396</v>
@@ -36133,13 +36133,13 @@
         <v>484.717207402961</v>
       </c>
       <c r="O20" t="n">
-        <v>33.30023041662295</v>
+        <v>404.934017704296</v>
       </c>
       <c r="P20" t="n">
         <v>313.1195329430793</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>157.4588465069741</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.91941669305645</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>97.47432280274641</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2942811356639</v>
+        <v>259.8122444535566</v>
       </c>
       <c r="M21" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="N21" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654792</v>
       </c>
       <c r="O21" t="n">
         <v>469.3353133130073</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>363.8757761779106</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>121.5118611190564</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>315.6836880634671</v>
       </c>
       <c r="L23" t="n">
         <v>442.1082841475057</v>
@@ -36370,10 +36370,10 @@
         <v>484.717207402961</v>
       </c>
       <c r="O23" t="n">
-        <v>404.934017704296</v>
+        <v>346.4197633597051</v>
       </c>
       <c r="P23" t="n">
-        <v>257.1694337188721</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>89.91941669305645</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>281.4710689145778</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2942811356639</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>92.75484404409882</v>
+        <v>557.7799487654797</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7799487654787</v>
+        <v>557.7799487654797</v>
       </c>
       <c r="O24" t="n">
-        <v>469.3353133130073</v>
+        <v>159.1334208127157</v>
       </c>
       <c r="P24" t="n">
         <v>363.8757761779106</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5118611190564</v>
+        <v>223.2799997165604</v>
       </c>
       <c r="K26" t="n">
         <v>417.451826660971</v>
       </c>
       <c r="L26" t="n">
-        <v>543.8764227450096</v>
+        <v>543.8764227450097</v>
       </c>
       <c r="M26" t="n">
         <v>599.9105659802435</v>
       </c>
       <c r="N26" t="n">
-        <v>586.4853460004649</v>
+        <v>586.485346000465</v>
       </c>
       <c r="O26" t="n">
-        <v>506.7021563017998</v>
+        <v>506.7021563018</v>
       </c>
       <c r="P26" t="n">
-        <v>414.8876715405831</v>
+        <v>313.1195329430793</v>
       </c>
       <c r="Q26" t="n">
-        <v>230.0901215568864</v>
+        <v>230.090121556886</v>
       </c>
       <c r="R26" t="n">
-        <v>48.143479749146</v>
+        <v>48.14347974914605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>436.2942811356639</v>
       </c>
       <c r="M27" t="n">
-        <v>67.4036938719635</v>
+        <v>567.8585998361845</v>
       </c>
       <c r="N27" t="n">
-        <v>596.4183323156944</v>
+        <v>95.96342635147353</v>
       </c>
       <c r="O27" t="n">
         <v>469.3353133130073</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.54067607114012</v>
+        <v>60.54067607114016</v>
       </c>
       <c r="K28" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L28" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957886</v>
       </c>
       <c r="M28" t="n">
-        <v>261.3709033556542</v>
+        <v>261.3709033556543</v>
       </c>
       <c r="N28" t="n">
-        <v>260.8430350962528</v>
+        <v>260.8430350962527</v>
       </c>
       <c r="O28" t="n">
         <v>237.6707107932976</v>
@@ -36771,7 +36771,7 @@
         <v>196.5570993598964</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.2066547893285</v>
+        <v>85.20665478932855</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>223.2799997165603</v>
       </c>
       <c r="K29" t="n">
-        <v>417.4518266609709</v>
+        <v>417.451826660971</v>
       </c>
       <c r="L29" t="n">
-        <v>543.8764227450096</v>
+        <v>543.8764227450097</v>
       </c>
       <c r="M29" t="n">
         <v>599.9105659802435</v>
       </c>
       <c r="N29" t="n">
-        <v>586.4853460004649</v>
+        <v>557.3484824528731</v>
       </c>
       <c r="O29" t="n">
-        <v>506.7021563017998</v>
+        <v>506.7021563017999</v>
       </c>
       <c r="P29" t="n">
-        <v>332.1261491446343</v>
+        <v>313.1195329430793</v>
       </c>
       <c r="Q29" t="n">
-        <v>259.2269851044779</v>
+        <v>259.226985104478</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>48.14347974914601</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.91941669305643</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>281.4710689145778</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>436.2942811356639</v>
       </c>
       <c r="M30" t="n">
-        <v>67.40369387196429</v>
+        <v>567.8585998361846</v>
       </c>
       <c r="N30" t="n">
         <v>596.4183323156944</v>
       </c>
       <c r="O30" t="n">
-        <v>469.3353133130072</v>
+        <v>469.3353133130073</v>
       </c>
       <c r="P30" t="n">
-        <v>363.8757761779105</v>
+        <v>363.8757761779106</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.6236513462151</v>
+        <v>69.55923098962879</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.54067607114012</v>
+        <v>60.54067607114013</v>
       </c>
       <c r="K31" t="n">
         <v>165.6679440078215</v>
@@ -37008,7 +37008,7 @@
         <v>196.5570993598964</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.2066547893285</v>
+        <v>85.20665478932851</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5118611190564</v>
+        <v>223.2799997165604</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4518266609709</v>
+        <v>417.451826660971</v>
       </c>
       <c r="L32" t="n">
-        <v>543.8764227450096</v>
+        <v>543.8764227450097</v>
       </c>
       <c r="M32" t="n">
-        <v>599.9105659802434</v>
+        <v>599.9105659802436</v>
       </c>
       <c r="N32" t="n">
-        <v>586.4853460004649</v>
+        <v>586.485346000465</v>
       </c>
       <c r="O32" t="n">
-        <v>477.5652927542097</v>
+        <v>477.5652927542078</v>
       </c>
       <c r="P32" t="n">
-        <v>414.8876715405831</v>
+        <v>313.1195329430793</v>
       </c>
       <c r="Q32" t="n">
-        <v>259.2269851044779</v>
+        <v>259.226985104478</v>
       </c>
       <c r="R32" t="n">
-        <v>48.14347974914595</v>
+        <v>48.14347974914604</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.91941669305645</v>
+        <v>89.91941669305646</v>
       </c>
       <c r="K33" t="n">
-        <v>281.4710689145778</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>436.2942811356639</v>
       </c>
       <c r="M33" t="n">
-        <v>567.8585998361845</v>
+        <v>567.8585998361846</v>
       </c>
       <c r="N33" t="n">
-        <v>95.96342635147353</v>
+        <v>596.4183323156944</v>
       </c>
       <c r="O33" t="n">
         <v>469.3353133130073</v>
       </c>
       <c r="P33" t="n">
-        <v>363.8757761779106</v>
+        <v>343.5155904744827</v>
       </c>
       <c r="Q33" t="n">
-        <v>198.6236513462151</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.54067607114006</v>
+        <v>60.54067607114015</v>
       </c>
       <c r="K34" t="n">
-        <v>165.6679440078215</v>
+        <v>165.6679440078216</v>
       </c>
       <c r="L34" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957896</v>
       </c>
       <c r="M34" t="n">
-        <v>261.3709033556541</v>
+        <v>261.3709033556543</v>
       </c>
       <c r="N34" t="n">
-        <v>260.8430350962548</v>
+        <v>260.8430350962527</v>
       </c>
       <c r="O34" t="n">
-        <v>237.6707107932975</v>
+        <v>237.6707107932976</v>
       </c>
       <c r="P34" t="n">
-        <v>196.5570993598963</v>
+        <v>196.5570993598964</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.20665478932844</v>
+        <v>85.20665478932854</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5118611190564</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>81.34935656147651</v>
+        <v>315.6836880634671</v>
       </c>
       <c r="L35" t="n">
         <v>442.1082841475057</v>
@@ -37315,7 +37315,7 @@
         <v>498.1424273827396</v>
       </c>
       <c r="N35" t="n">
-        <v>484.717207402961</v>
+        <v>371.8947370200278</v>
       </c>
       <c r="O35" t="n">
         <v>404.934017704296</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.91941669305645</v>
+        <v>89.91941669305646</v>
       </c>
       <c r="K36" t="n">
-        <v>281.4710689145778</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>436.2942811356639</v>
       </c>
       <c r="M36" t="n">
-        <v>67.40369387196327</v>
+        <v>567.8585998361846</v>
       </c>
       <c r="N36" t="n">
         <v>596.4183323156944</v>
@@ -37400,7 +37400,7 @@
         <v>469.3353133130073</v>
       </c>
       <c r="P36" t="n">
-        <v>363.8757761779106</v>
+        <v>144.891939128267</v>
       </c>
       <c r="Q36" t="n">
         <v>198.6236513462151</v>
@@ -37543,7 +37543,7 @@
         <v>121.5118611190564</v>
       </c>
       <c r="K38" t="n">
-        <v>81.34935656147744</v>
+        <v>315.6836880634671</v>
       </c>
       <c r="L38" t="n">
         <v>442.1082841475057</v>
@@ -37552,10 +37552,10 @@
         <v>498.1424273827396</v>
       </c>
       <c r="N38" t="n">
-        <v>484.717207402961</v>
+        <v>484.7172074029611</v>
       </c>
       <c r="O38" t="n">
-        <v>404.934017704296</v>
+        <v>170.5996862023064</v>
       </c>
       <c r="P38" t="n">
         <v>313.1195329430793</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.91941669305645</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>281.4710689145778</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>307.2298607790774</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8585998361845</v>
+        <v>567.8585998361846</v>
       </c>
       <c r="N39" t="n">
         <v>596.4183323156944</v>
@@ -37640,7 +37640,7 @@
         <v>363.8757761779106</v>
       </c>
       <c r="Q39" t="n">
-        <v>134.4630265176585</v>
+        <v>198.6236513462151</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5118611190564</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>315.6836880634671</v>
       </c>
       <c r="L41" t="n">
-        <v>207.7739526455161</v>
+        <v>329.2858137645725</v>
       </c>
       <c r="M41" t="n">
         <v>498.1424273827396</v>
       </c>
       <c r="N41" t="n">
-        <v>484.717207402961</v>
+        <v>484.7172074029611</v>
       </c>
       <c r="O41" t="n">
         <v>404.934017704296</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.91941669305645</v>
+        <v>89.91941669305646</v>
       </c>
       <c r="K42" t="n">
-        <v>281.4710689145778</v>
+        <v>281.4710689145779</v>
       </c>
       <c r="L42" t="n">
         <v>436.2942811356639</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8585998361845</v>
+        <v>567.8585998361846</v>
       </c>
       <c r="N42" t="n">
-        <v>596.4183323156944</v>
+        <v>95.96342635147307</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>469.3353133130073</v>
       </c>
       <c r="P42" t="n">
         <v>363.8757761779106</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5040586950015</v>
+        <v>198.6236513462151</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>442.1082841475057</v>
       </c>
       <c r="M44" t="n">
-        <v>498.1424273827396</v>
+        <v>263.8080958807498</v>
       </c>
       <c r="N44" t="n">
-        <v>484.717207402961</v>
+        <v>484.7172074029611</v>
       </c>
       <c r="O44" t="n">
         <v>404.934017704296</v>
       </c>
       <c r="P44" t="n">
-        <v>78.78520144108964</v>
+        <v>313.1195329430793</v>
       </c>
       <c r="Q44" t="n">
         <v>157.4588465069741</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.91941669305645</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>144.8919391282671</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>436.2942811356639</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8585998361845</v>
+        <v>567.8585998361846</v>
       </c>
       <c r="N45" t="n">
         <v>596.4183323156944</v>
@@ -38111,10 +38111,10 @@
         <v>469.3353133130073</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>363.8757761779106</v>
       </c>
       <c r="Q45" t="n">
-        <v>198.6236513462151</v>
+        <v>69.55923098962833</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
